--- a/src/main/resources/blanks/blank_complaint.xlsx
+++ b/src/main/resources/blanks/blank_complaint.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>from</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Part №:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>от</t>
@@ -1599,7 +1596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="396">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1775,142 +1772,804 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1922,10 +2581,6 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2025,10 +2680,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2138,18 +2789,192 @@
       <alignment horizontal="left" indent="2"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2174,832 +2999,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3046,7 +3047,7 @@
         <xdr:cNvPr id="6173" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3121,7 @@
         <xdr:cNvPr id="1062" name="Text Box 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3215,7 +3216,7 @@
         <xdr:cNvPr id="6175" name="Line 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,7 +3285,7 @@
         <xdr:cNvPr id="6176" name="Line 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3354,7 @@
         <xdr:cNvPr id="6177" name="Line 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3422,7 +3423,7 @@
         <xdr:cNvPr id="6178" name="Line 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3491,7 +3492,7 @@
         <xdr:cNvPr id="6179" name="Line 192">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3560,7 +3561,7 @@
         <xdr:cNvPr id="6180" name="Line 231">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +3630,7 @@
         <xdr:cNvPr id="6182" name="Line 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000026180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3698,7 +3699,7 @@
         <xdr:cNvPr id="6183" name="Line 330">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3768,7 @@
         <xdr:cNvPr id="6184" name="Line 617">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3836,7 +3837,7 @@
         <xdr:cNvPr id="6185" name="Line 618">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029180000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3905,7 +3906,7 @@
         <xdr:cNvPr id="37" name="Line 180">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000025000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +3975,7 @@
         <xdr:cNvPr id="40" name="Line 181">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4043,7 +4044,7 @@
         <xdr:cNvPr id="41" name="Line 241">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +4113,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4587,7 +4588,7 @@
       <c r="AF2" s="5"/>
       <c r="AH2" s="5"/>
       <c r="AJ2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
@@ -4618,7 +4619,7 @@
       <c r="AF3" s="50"/>
       <c r="AH3" s="50"/>
       <c r="AJ3" s="50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK3" s="50"/>
       <c r="AL3" s="50"/>
@@ -4667,7 +4668,7 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AR5" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
@@ -4675,7 +4676,7 @@
     <row r="6" spans="1:53" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AH6" s="50"/>
       <c r="AJ6" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AK6" s="50"/>
       <c r="AL6" s="50"/>
@@ -4706,42 +4707,40 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
-      <c r="J8" s="394" t="s">
-        <v>23</v>
+      <c r="J8" s="67" t="s">
+        <v>22</v>
       </c>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="394"/>
-      <c r="N8" s="394"/>
-      <c r="O8" s="394"/>
-      <c r="P8" s="394"/>
-      <c r="Q8" s="394"/>
-      <c r="R8" s="394"/>
-      <c r="S8" s="394"/>
-      <c r="T8" s="394"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
-      <c r="W8" s="187" t="s">
+      <c r="W8" s="395"/>
+      <c r="X8" s="395"/>
+      <c r="Y8" s="395"/>
+      <c r="Z8" s="395"/>
+      <c r="AA8" s="395"/>
+      <c r="AB8" s="395"/>
+      <c r="AC8" s="395"/>
+      <c r="AD8" s="395"/>
+      <c r="AE8" s="395"/>
+      <c r="AF8" s="395"/>
+      <c r="AG8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="187"/>
-      <c r="Z8" s="187"/>
-      <c r="AA8" s="187"/>
-      <c r="AB8" s="187"/>
-      <c r="AC8" s="187"/>
-      <c r="AD8" s="187"/>
-      <c r="AE8" s="187"/>
-      <c r="AF8" s="187"/>
-      <c r="AG8" s="24" t="s">
-        <v>22</v>
-      </c>
       <c r="AH8" s="24"/>
-      <c r="AI8" s="267"/>
-      <c r="AJ8" s="267"/>
-      <c r="AK8" s="267"/>
-      <c r="AL8" s="267"/>
-      <c r="AM8" s="267"/>
+      <c r="AI8" s="120"/>
+      <c r="AJ8" s="120"/>
+      <c r="AK8" s="120"/>
+      <c r="AL8" s="120"/>
+      <c r="AM8" s="120"/>
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
@@ -4774,27 +4773,27 @@
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
-      <c r="Q9" s="270" t="s">
-        <v>34</v>
+      <c r="Q9" s="123" t="s">
+        <v>33</v>
       </c>
-      <c r="R9" s="270"/>
-      <c r="S9" s="270"/>
-      <c r="T9" s="270"/>
-      <c r="U9" s="270"/>
-      <c r="V9" s="270"/>
-      <c r="W9" s="270"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="270"/>
-      <c r="Z9" s="270"/>
-      <c r="AA9" s="270"/>
-      <c r="AB9" s="270"/>
-      <c r="AC9" s="270"/>
-      <c r="AD9" s="270"/>
-      <c r="AE9" s="270"/>
-      <c r="AF9" s="270"/>
-      <c r="AG9" s="270"/>
-      <c r="AH9" s="270"/>
-      <c r="AI9" s="270"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="123"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="123"/>
+      <c r="AG9" s="123"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="123"/>
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="25"/>
@@ -4888,12 +4887,12 @@
       <c r="P11" s="23"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="28"/>
-      <c r="S11" s="269" t="s">
-        <v>38</v>
+      <c r="S11" s="122" t="s">
+        <v>37</v>
       </c>
-      <c r="T11" s="269"/>
-      <c r="U11" s="269"/>
-      <c r="V11" s="269"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
       <c r="W11" s="29">
         <f>AB8</f>
         <v>0</v>
@@ -4902,19 +4901,19 @@
       <c r="Y11" s="29"/>
       <c r="Z11" s="29"/>
       <c r="AA11" s="30"/>
-      <c r="AB11" s="268" t="s">
+      <c r="AB11" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="AC11" s="268"/>
+      <c r="AC11" s="121"/>
       <c r="AD11" s="30"/>
-      <c r="AE11" s="268">
+      <c r="AE11" s="121">
         <f>AI8</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="269"/>
-      <c r="AG11" s="269"/>
-      <c r="AH11" s="269"/>
-      <c r="AI11" s="269"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="122"/>
+      <c r="AH11" s="122"/>
+      <c r="AI11" s="122"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="3"/>
@@ -4954,24 +4953,24 @@
       <c r="Q12" s="23"/>
       <c r="R12" s="28"/>
       <c r="S12" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="T12" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="T12" s="269" t="s">
-        <v>40</v>
-      </c>
-      <c r="U12" s="269"/>
-      <c r="V12" s="269"/>
-      <c r="W12" s="269"/>
-      <c r="X12" s="269"/>
-      <c r="Y12" s="269"/>
-      <c r="Z12" s="269"/>
-      <c r="AA12" s="269"/>
-      <c r="AB12" s="269"/>
-      <c r="AC12" s="269"/>
-      <c r="AD12" s="269"/>
-      <c r="AE12" s="269"/>
-      <c r="AF12" s="269"/>
-      <c r="AG12" s="269"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="122"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="122"/>
+      <c r="AA12" s="122"/>
+      <c r="AB12" s="122"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="122"/>
       <c r="AH12" s="29"/>
       <c r="AI12" s="28"/>
       <c r="AJ12" s="28"/>
@@ -5216,378 +5215,378 @@
       <c r="BA16" s="3"/>
     </row>
     <row r="17" spans="1:53" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="235" t="s">
+      <c r="A17" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="236"/>
-      <c r="G17" s="237"/>
-      <c r="H17" s="237"/>
-      <c r="I17" s="237"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="237"/>
-      <c r="L17" s="237"/>
-      <c r="M17" s="237"/>
-      <c r="N17" s="237"/>
-      <c r="O17" s="237"/>
-      <c r="P17" s="237"/>
-      <c r="Q17" s="237"/>
-      <c r="R17" s="238"/>
-      <c r="S17" s="235" t="s">
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="147"/>
+      <c r="N17" s="147"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="147"/>
+      <c r="Q17" s="147"/>
+      <c r="R17" s="148"/>
+      <c r="S17" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="235"/>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="239" t="s">
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="Y17" s="239"/>
-      <c r="Z17" s="239"/>
-      <c r="AA17" s="239"/>
-      <c r="AB17" s="239"/>
-      <c r="AC17" s="239"/>
-      <c r="AD17" s="239"/>
-      <c r="AE17" s="239"/>
-      <c r="AF17" s="239"/>
-      <c r="AG17" s="239"/>
-      <c r="AH17" s="239"/>
-      <c r="AI17" s="239"/>
-      <c r="AJ17" s="239"/>
-      <c r="AK17" s="259" t="s">
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="AL17" s="260"/>
-      <c r="AM17" s="260"/>
-      <c r="AN17" s="260"/>
-      <c r="AO17" s="260"/>
-      <c r="AP17" s="260"/>
-      <c r="AQ17" s="261"/>
-      <c r="AR17" s="274"/>
-      <c r="AS17" s="275"/>
-      <c r="AT17" s="275"/>
-      <c r="AU17" s="275"/>
-      <c r="AV17" s="275"/>
-      <c r="AW17" s="275"/>
-      <c r="AX17" s="275"/>
-      <c r="AY17" s="275"/>
-      <c r="AZ17" s="275"/>
+      <c r="AL17" s="170"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="170"/>
+      <c r="AO17" s="170"/>
+      <c r="AP17" s="170"/>
+      <c r="AQ17" s="171"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="128"/>
+      <c r="AT17" s="128"/>
+      <c r="AU17" s="128"/>
+      <c r="AV17" s="128"/>
+      <c r="AW17" s="128"/>
+      <c r="AX17" s="128"/>
+      <c r="AY17" s="128"/>
+      <c r="AZ17" s="128"/>
       <c r="BA17" s="3"/>
     </row>
     <row r="18" spans="1:53" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="249" t="s">
+      <c r="A18" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="249"/>
-      <c r="C18" s="249"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="250"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
-      <c r="K18" s="251"/>
-      <c r="L18" s="251"/>
-      <c r="M18" s="251"/>
-      <c r="N18" s="251"/>
-      <c r="O18" s="251"/>
-      <c r="P18" s="251"/>
-      <c r="Q18" s="251"/>
-      <c r="R18" s="252"/>
-      <c r="S18" s="249" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="161"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="249"/>
-      <c r="W18" s="249"/>
-      <c r="X18" s="256" t="s">
-        <v>54</v>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="166" t="s">
+        <v>53</v>
       </c>
-      <c r="Y18" s="257"/>
-      <c r="Z18" s="257"/>
-      <c r="AA18" s="257"/>
-      <c r="AB18" s="257"/>
-      <c r="AC18" s="257"/>
-      <c r="AD18" s="257"/>
-      <c r="AE18" s="257"/>
-      <c r="AF18" s="257"/>
-      <c r="AG18" s="257"/>
-      <c r="AH18" s="257"/>
-      <c r="AI18" s="257"/>
-      <c r="AJ18" s="258"/>
-      <c r="AK18" s="249" t="s">
+      <c r="Y18" s="167"/>
+      <c r="Z18" s="167"/>
+      <c r="AA18" s="167"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="167"/>
+      <c r="AD18" s="167"/>
+      <c r="AE18" s="167"/>
+      <c r="AF18" s="167"/>
+      <c r="AG18" s="167"/>
+      <c r="AH18" s="167"/>
+      <c r="AI18" s="167"/>
+      <c r="AJ18" s="168"/>
+      <c r="AK18" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="AL18" s="249"/>
-      <c r="AM18" s="249"/>
-      <c r="AN18" s="249"/>
-      <c r="AO18" s="249"/>
-      <c r="AP18" s="249"/>
-      <c r="AQ18" s="249"/>
-      <c r="AR18" s="276"/>
-      <c r="AS18" s="276"/>
-      <c r="AT18" s="276"/>
-      <c r="AU18" s="276"/>
-      <c r="AV18" s="276"/>
-      <c r="AW18" s="276"/>
-      <c r="AX18" s="276"/>
-      <c r="AY18" s="276"/>
-      <c r="AZ18" s="276"/>
+      <c r="AL18" s="159"/>
+      <c r="AM18" s="159"/>
+      <c r="AN18" s="159"/>
+      <c r="AO18" s="159"/>
+      <c r="AP18" s="159"/>
+      <c r="AQ18" s="159"/>
+      <c r="AR18" s="129"/>
+      <c r="AS18" s="129"/>
+      <c r="AT18" s="129"/>
+      <c r="AU18" s="129"/>
+      <c r="AV18" s="129"/>
+      <c r="AW18" s="129"/>
+      <c r="AX18" s="129"/>
+      <c r="AY18" s="129"/>
+      <c r="AZ18" s="129"/>
       <c r="BA18" s="3"/>
     </row>
     <row r="19" spans="1:53" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="262" t="s">
+      <c r="A19" s="172" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="263"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="263"/>
-      <c r="H19" s="264"/>
-      <c r="I19" s="243"/>
-      <c r="J19" s="244"/>
-      <c r="K19" s="244"/>
-      <c r="L19" s="244"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="244"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="244"/>
-      <c r="U19" s="244"/>
-      <c r="V19" s="244"/>
-      <c r="W19" s="244"/>
-      <c r="X19" s="244"/>
-      <c r="Y19" s="245"/>
-      <c r="Z19" s="253" t="s">
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="154"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="AA19" s="254"/>
-      <c r="AB19" s="254"/>
-      <c r="AC19" s="254"/>
-      <c r="AD19" s="254"/>
-      <c r="AE19" s="254"/>
-      <c r="AF19" s="254"/>
-      <c r="AG19" s="254"/>
-      <c r="AH19" s="254"/>
-      <c r="AI19" s="254"/>
-      <c r="AJ19" s="254"/>
-      <c r="AK19" s="255"/>
-      <c r="AL19" s="281"/>
-      <c r="AM19" s="282"/>
-      <c r="AN19" s="282"/>
-      <c r="AO19" s="282"/>
-      <c r="AP19" s="282"/>
-      <c r="AQ19" s="282"/>
-      <c r="AR19" s="282"/>
-      <c r="AS19" s="282"/>
-      <c r="AT19" s="282"/>
-      <c r="AU19" s="282"/>
-      <c r="AV19" s="282"/>
-      <c r="AW19" s="282"/>
-      <c r="AX19" s="282"/>
-      <c r="AY19" s="282"/>
-      <c r="AZ19" s="283"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="164"/>
+      <c r="AI19" s="164"/>
+      <c r="AJ19" s="164"/>
+      <c r="AK19" s="165"/>
+      <c r="AL19" s="136"/>
+      <c r="AM19" s="137"/>
+      <c r="AN19" s="137"/>
+      <c r="AO19" s="137"/>
+      <c r="AP19" s="137"/>
+      <c r="AQ19" s="137"/>
+      <c r="AR19" s="137"/>
+      <c r="AS19" s="137"/>
+      <c r="AT19" s="137"/>
+      <c r="AU19" s="137"/>
+      <c r="AV19" s="137"/>
+      <c r="AW19" s="137"/>
+      <c r="AX19" s="137"/>
+      <c r="AY19" s="137"/>
+      <c r="AZ19" s="138"/>
       <c r="BA19" s="3"/>
     </row>
     <row r="20" spans="1:53" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="137" t="s">
+      <c r="A20" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="265"/>
-      <c r="E20" s="265"/>
-      <c r="F20" s="265"/>
-      <c r="G20" s="265"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="246"/>
-      <c r="J20" s="247"/>
-      <c r="K20" s="247"/>
-      <c r="L20" s="247"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="247"/>
-      <c r="O20" s="247"/>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="247"/>
-      <c r="R20" s="247"/>
-      <c r="S20" s="247"/>
-      <c r="T20" s="247"/>
-      <c r="U20" s="247"/>
-      <c r="V20" s="247"/>
-      <c r="W20" s="247"/>
-      <c r="X20" s="247"/>
-      <c r="Y20" s="248"/>
-      <c r="Z20" s="240" t="s">
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="N20" s="157"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="157"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="157"/>
+      <c r="S20" s="157"/>
+      <c r="T20" s="157"/>
+      <c r="U20" s="157"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="157"/>
+      <c r="X20" s="157"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="AA20" s="241"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="241"/>
-      <c r="AE20" s="241"/>
-      <c r="AF20" s="241"/>
-      <c r="AG20" s="241"/>
-      <c r="AH20" s="241"/>
-      <c r="AI20" s="241"/>
-      <c r="AJ20" s="241"/>
-      <c r="AK20" s="242"/>
-      <c r="AL20" s="284"/>
-      <c r="AM20" s="285"/>
-      <c r="AN20" s="285"/>
-      <c r="AO20" s="285"/>
-      <c r="AP20" s="285"/>
-      <c r="AQ20" s="285"/>
-      <c r="AR20" s="285"/>
-      <c r="AS20" s="285"/>
-      <c r="AT20" s="285"/>
-      <c r="AU20" s="285"/>
-      <c r="AV20" s="285"/>
-      <c r="AW20" s="285"/>
-      <c r="AX20" s="285"/>
-      <c r="AY20" s="285"/>
-      <c r="AZ20" s="286"/>
+      <c r="AA20" s="151"/>
+      <c r="AB20" s="151"/>
+      <c r="AC20" s="151"/>
+      <c r="AD20" s="151"/>
+      <c r="AE20" s="151"/>
+      <c r="AF20" s="151"/>
+      <c r="AG20" s="151"/>
+      <c r="AH20" s="151"/>
+      <c r="AI20" s="151"/>
+      <c r="AJ20" s="151"/>
+      <c r="AK20" s="152"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="140"/>
+      <c r="AN20" s="140"/>
+      <c r="AO20" s="140"/>
+      <c r="AP20" s="140"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="140"/>
+      <c r="AS20" s="140"/>
+      <c r="AT20" s="140"/>
+      <c r="AU20" s="140"/>
+      <c r="AV20" s="140"/>
+      <c r="AW20" s="140"/>
+      <c r="AX20" s="140"/>
+      <c r="AY20" s="140"/>
+      <c r="AZ20" s="141"/>
       <c r="BA20" s="3"/>
     </row>
     <row r="21" spans="1:53" ht="20.399999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="104"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="104" t="s">
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="279"/>
+      <c r="K21" s="279"/>
+      <c r="L21" s="279"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="O21" s="104"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
-      <c r="S21" s="104"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="271"/>
-      <c r="V21" s="287"/>
-      <c r="W21" s="287"/>
-      <c r="X21" s="287"/>
-      <c r="Y21" s="287"/>
-      <c r="Z21" s="104" t="s">
+      <c r="O21" s="130"/>
+      <c r="P21" s="130"/>
+      <c r="Q21" s="130"/>
+      <c r="R21" s="130"/>
+      <c r="S21" s="130"/>
+      <c r="T21" s="130"/>
+      <c r="U21" s="124"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="142"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="104"/>
-      <c r="AC21" s="104"/>
-      <c r="AD21" s="104"/>
-      <c r="AE21" s="104"/>
-      <c r="AF21" s="104"/>
-      <c r="AG21" s="271"/>
-      <c r="AH21" s="279"/>
-      <c r="AI21" s="279"/>
-      <c r="AJ21" s="279"/>
-      <c r="AK21" s="279"/>
-      <c r="AL21" s="278" t="s">
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="130"/>
+      <c r="AE21" s="130"/>
+      <c r="AF21" s="130"/>
+      <c r="AG21" s="124"/>
+      <c r="AH21" s="134"/>
+      <c r="AI21" s="134"/>
+      <c r="AJ21" s="134"/>
+      <c r="AK21" s="134"/>
+      <c r="AL21" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="AM21" s="278"/>
-      <c r="AN21" s="278"/>
-      <c r="AO21" s="278"/>
-      <c r="AP21" s="278"/>
-      <c r="AQ21" s="278"/>
-      <c r="AR21" s="278"/>
-      <c r="AS21" s="271"/>
-      <c r="AT21" s="272"/>
-      <c r="AU21" s="272"/>
-      <c r="AV21" s="272"/>
-      <c r="AW21" s="272"/>
-      <c r="AX21" s="272"/>
-      <c r="AY21" s="272"/>
-      <c r="AZ21" s="272"/>
+      <c r="AM21" s="133"/>
+      <c r="AN21" s="133"/>
+      <c r="AO21" s="133"/>
+      <c r="AP21" s="133"/>
+      <c r="AQ21" s="133"/>
+      <c r="AR21" s="133"/>
+      <c r="AS21" s="124"/>
+      <c r="AT21" s="125"/>
+      <c r="AU21" s="125"/>
+      <c r="AV21" s="125"/>
+      <c r="AW21" s="125"/>
+      <c r="AX21" s="125"/>
+      <c r="AY21" s="125"/>
+      <c r="AZ21" s="125"/>
       <c r="BA21" s="3"/>
     </row>
     <row r="22" spans="1:53" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="131" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="131"/>
+      <c r="C22" s="131"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="281"/>
+      <c r="H22" s="282"/>
+      <c r="I22" s="282"/>
+      <c r="J22" s="282"/>
+      <c r="K22" s="282"/>
+      <c r="L22" s="282"/>
+      <c r="M22" s="283"/>
+      <c r="N22" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="111" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="111"/>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="111"/>
-      <c r="T22" s="111"/>
-      <c r="U22" s="288"/>
-      <c r="V22" s="288"/>
-      <c r="W22" s="288"/>
-      <c r="X22" s="288"/>
-      <c r="Y22" s="288"/>
-      <c r="Z22" s="111" t="s">
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
+      <c r="W22" s="143"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="143"/>
+      <c r="Z22" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="AA22" s="111"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="111"/>
-      <c r="AE22" s="111"/>
-      <c r="AF22" s="111"/>
-      <c r="AG22" s="280"/>
-      <c r="AH22" s="280"/>
-      <c r="AI22" s="280"/>
-      <c r="AJ22" s="280"/>
-      <c r="AK22" s="280"/>
-      <c r="AL22" s="277" t="s">
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="135"/>
+      <c r="AJ22" s="135"/>
+      <c r="AK22" s="135"/>
+      <c r="AL22" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AM22" s="277"/>
-      <c r="AN22" s="277"/>
-      <c r="AO22" s="277"/>
-      <c r="AP22" s="277"/>
-      <c r="AQ22" s="277"/>
-      <c r="AR22" s="277"/>
-      <c r="AS22" s="273"/>
-      <c r="AT22" s="273"/>
-      <c r="AU22" s="273"/>
-      <c r="AV22" s="273"/>
-      <c r="AW22" s="273"/>
-      <c r="AX22" s="273"/>
-      <c r="AY22" s="273"/>
-      <c r="AZ22" s="273"/>
+      <c r="AM22" s="132"/>
+      <c r="AN22" s="132"/>
+      <c r="AO22" s="132"/>
+      <c r="AP22" s="132"/>
+      <c r="AQ22" s="132"/>
+      <c r="AR22" s="132"/>
+      <c r="AS22" s="126"/>
+      <c r="AT22" s="126"/>
+      <c r="AU22" s="126"/>
+      <c r="AV22" s="126"/>
+      <c r="AW22" s="126"/>
+      <c r="AX22" s="126"/>
+      <c r="AY22" s="126"/>
+      <c r="AZ22" s="126"/>
       <c r="BA22" s="3"/>
     </row>
     <row r="23" spans="1:53" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23" s="56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="57"/>
       <c r="C23" s="57"/>
@@ -5596,679 +5595,679 @@
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
       <c r="H23" s="58"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="338"/>
-      <c r="K23" s="338"/>
-      <c r="L23" s="338"/>
-      <c r="M23" s="338"/>
-      <c r="N23" s="338"/>
-      <c r="O23" s="338"/>
-      <c r="P23" s="338"/>
-      <c r="Q23" s="338"/>
-      <c r="R23" s="338"/>
-      <c r="S23" s="338"/>
-      <c r="T23" s="338"/>
-      <c r="U23" s="338"/>
-      <c r="V23" s="338"/>
-      <c r="W23" s="338"/>
-      <c r="X23" s="338"/>
-      <c r="Y23" s="338"/>
-      <c r="Z23" s="339"/>
-      <c r="AA23" s="262" t="s">
+      <c r="I23" s="153"/>
+      <c r="J23" s="355"/>
+      <c r="K23" s="355"/>
+      <c r="L23" s="355"/>
+      <c r="M23" s="355"/>
+      <c r="N23" s="355"/>
+      <c r="O23" s="355"/>
+      <c r="P23" s="355"/>
+      <c r="Q23" s="355"/>
+      <c r="R23" s="355"/>
+      <c r="S23" s="355"/>
+      <c r="T23" s="355"/>
+      <c r="U23" s="355"/>
+      <c r="V23" s="355"/>
+      <c r="W23" s="355"/>
+      <c r="X23" s="355"/>
+      <c r="Y23" s="355"/>
+      <c r="Z23" s="356"/>
+      <c r="AA23" s="172" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB23" s="69"/>
+      <c r="AC23" s="69"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="314"/>
+      <c r="AG23" s="315"/>
+      <c r="AH23" s="315"/>
+      <c r="AI23" s="315"/>
+      <c r="AJ23" s="315"/>
+      <c r="AK23" s="315"/>
+      <c r="AL23" s="315"/>
+      <c r="AM23" s="316"/>
+      <c r="AN23" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AB23" s="336"/>
-      <c r="AC23" s="336"/>
-      <c r="AD23" s="336"/>
-      <c r="AE23" s="337"/>
-      <c r="AF23" s="143"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="144"/>
-      <c r="AK23" s="144"/>
-      <c r="AL23" s="144"/>
-      <c r="AM23" s="145"/>
-      <c r="AN23" s="343" t="s">
+      <c r="AO23" s="69"/>
+      <c r="AP23" s="69"/>
+      <c r="AQ23" s="69"/>
+      <c r="AR23" s="69"/>
+      <c r="AS23" s="70"/>
+      <c r="AT23" s="153"/>
+      <c r="AU23" s="350"/>
+      <c r="AV23" s="350"/>
+      <c r="AW23" s="350"/>
+      <c r="AX23" s="350"/>
+      <c r="AY23" s="350"/>
+      <c r="AZ23" s="351"/>
+      <c r="BA23" s="3"/>
+    </row>
+    <row r="24" spans="1:53" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="309"/>
+      <c r="C24" s="309"/>
+      <c r="D24" s="309"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
+      <c r="H24" s="310"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="358"/>
+      <c r="K24" s="358"/>
+      <c r="L24" s="358"/>
+      <c r="M24" s="358"/>
+      <c r="N24" s="358"/>
+      <c r="O24" s="358"/>
+      <c r="P24" s="358"/>
+      <c r="Q24" s="358"/>
+      <c r="R24" s="358"/>
+      <c r="S24" s="358"/>
+      <c r="T24" s="358"/>
+      <c r="U24" s="358"/>
+      <c r="V24" s="358"/>
+      <c r="W24" s="358"/>
+      <c r="X24" s="358"/>
+      <c r="Y24" s="358"/>
+      <c r="Z24" s="359"/>
+      <c r="AA24" s="175" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="309"/>
+      <c r="AC24" s="309"/>
+      <c r="AD24" s="309"/>
+      <c r="AE24" s="310"/>
+      <c r="AF24" s="317"/>
+      <c r="AG24" s="318"/>
+      <c r="AH24" s="318"/>
+      <c r="AI24" s="318"/>
+      <c r="AJ24" s="318"/>
+      <c r="AK24" s="318"/>
+      <c r="AL24" s="318"/>
+      <c r="AM24" s="319"/>
+      <c r="AN24" s="175" t="s">
         <v>26</v>
       </c>
-      <c r="AO23" s="336"/>
-      <c r="AP23" s="336"/>
-      <c r="AQ23" s="336"/>
-      <c r="AR23" s="336"/>
-      <c r="AS23" s="337"/>
-      <c r="AT23" s="243"/>
-      <c r="AU23" s="289"/>
-      <c r="AV23" s="289"/>
-      <c r="AW23" s="289"/>
-      <c r="AX23" s="289"/>
-      <c r="AY23" s="289"/>
-      <c r="AZ23" s="290"/>
-      <c r="BA23" s="3"/>
-    </row>
-    <row r="24" spans="1:53" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="137" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="340"/>
-      <c r="J24" s="341"/>
-      <c r="K24" s="341"/>
-      <c r="L24" s="341"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="341"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="341"/>
-      <c r="S24" s="341"/>
-      <c r="T24" s="341"/>
-      <c r="U24" s="341"/>
-      <c r="V24" s="341"/>
-      <c r="W24" s="341"/>
-      <c r="X24" s="341"/>
-      <c r="Y24" s="341"/>
-      <c r="Z24" s="342"/>
-      <c r="AA24" s="137" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="146"/>
-      <c r="AG24" s="147"/>
-      <c r="AH24" s="147"/>
-      <c r="AI24" s="147"/>
-      <c r="AJ24" s="147"/>
-      <c r="AK24" s="147"/>
-      <c r="AL24" s="147"/>
-      <c r="AM24" s="148"/>
-      <c r="AN24" s="137" t="s">
+      <c r="AO24" s="309"/>
+      <c r="AP24" s="309"/>
+      <c r="AQ24" s="309"/>
+      <c r="AR24" s="309"/>
+      <c r="AS24" s="310"/>
+      <c r="AT24" s="352"/>
+      <c r="AU24" s="353"/>
+      <c r="AV24" s="353"/>
+      <c r="AW24" s="353"/>
+      <c r="AX24" s="353"/>
+      <c r="AY24" s="353"/>
+      <c r="AZ24" s="354"/>
+      <c r="BA24" s="3"/>
+    </row>
+    <row r="25" spans="1:53" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="297" t="s">
         <v>27</v>
       </c>
-      <c r="AO24" s="138"/>
-      <c r="AP24" s="138"/>
-      <c r="AQ24" s="138"/>
-      <c r="AR24" s="138"/>
-      <c r="AS24" s="139"/>
-      <c r="AT24" s="291"/>
-      <c r="AU24" s="292"/>
-      <c r="AV24" s="292"/>
-      <c r="AW24" s="292"/>
-      <c r="AX24" s="292"/>
-      <c r="AY24" s="292"/>
-      <c r="AZ24" s="293"/>
-      <c r="BA24" s="3"/>
-    </row>
-    <row r="25" spans="1:53" ht="22.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="125" t="s">
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
+      <c r="H25" s="299"/>
+      <c r="I25" s="285"/>
+      <c r="J25" s="286"/>
+      <c r="K25" s="286"/>
+      <c r="L25" s="286"/>
+      <c r="M25" s="286"/>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="286"/>
+      <c r="R25" s="286"/>
+      <c r="S25" s="286"/>
+      <c r="T25" s="286"/>
+      <c r="U25" s="286"/>
+      <c r="V25" s="286"/>
+      <c r="W25" s="286"/>
+      <c r="X25" s="286"/>
+      <c r="Y25" s="286"/>
+      <c r="Z25" s="286"/>
+      <c r="AA25" s="286"/>
+      <c r="AB25" s="286"/>
+      <c r="AC25" s="286"/>
+      <c r="AD25" s="286"/>
+      <c r="AE25" s="286"/>
+      <c r="AF25" s="286"/>
+      <c r="AG25" s="286"/>
+      <c r="AH25" s="286"/>
+      <c r="AI25" s="286"/>
+      <c r="AJ25" s="286"/>
+      <c r="AK25" s="286"/>
+      <c r="AL25" s="286"/>
+      <c r="AM25" s="286"/>
+      <c r="AN25" s="286"/>
+      <c r="AO25" s="286"/>
+      <c r="AP25" s="286"/>
+      <c r="AQ25" s="286"/>
+      <c r="AR25" s="286"/>
+      <c r="AS25" s="287"/>
+      <c r="AT25" s="347" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU25" s="348"/>
+      <c r="AV25" s="348"/>
+      <c r="AW25" s="348"/>
+      <c r="AX25" s="348"/>
+      <c r="AY25" s="348"/>
+      <c r="AZ25" s="349"/>
+      <c r="BA25" s="3"/>
+    </row>
+    <row r="26" spans="1:53" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="300"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="288"/>
+      <c r="J26" s="289"/>
+      <c r="K26" s="289"/>
+      <c r="L26" s="289"/>
+      <c r="M26" s="289"/>
+      <c r="N26" s="289"/>
+      <c r="O26" s="289"/>
+      <c r="P26" s="289"/>
+      <c r="Q26" s="289"/>
+      <c r="R26" s="289"/>
+      <c r="S26" s="289"/>
+      <c r="T26" s="289"/>
+      <c r="U26" s="289"/>
+      <c r="V26" s="289"/>
+      <c r="W26" s="289"/>
+      <c r="X26" s="289"/>
+      <c r="Y26" s="289"/>
+      <c r="Z26" s="289"/>
+      <c r="AA26" s="289"/>
+      <c r="AB26" s="289"/>
+      <c r="AC26" s="289"/>
+      <c r="AD26" s="289"/>
+      <c r="AE26" s="289"/>
+      <c r="AF26" s="289"/>
+      <c r="AG26" s="289"/>
+      <c r="AH26" s="289"/>
+      <c r="AI26" s="289"/>
+      <c r="AJ26" s="289"/>
+      <c r="AK26" s="289"/>
+      <c r="AL26" s="289"/>
+      <c r="AM26" s="289"/>
+      <c r="AN26" s="289"/>
+      <c r="AO26" s="289"/>
+      <c r="AP26" s="289"/>
+      <c r="AQ26" s="289"/>
+      <c r="AR26" s="289"/>
+      <c r="AS26" s="290"/>
+      <c r="AT26" s="338"/>
+      <c r="AU26" s="339"/>
+      <c r="AV26" s="339"/>
+      <c r="AW26" s="339"/>
+      <c r="AX26" s="339"/>
+      <c r="AY26" s="339"/>
+      <c r="AZ26" s="340"/>
+      <c r="BA26" s="3"/>
+    </row>
+    <row r="27" spans="1:53" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="114"/>
-      <c r="AI25" s="114"/>
-      <c r="AJ25" s="114"/>
-      <c r="AK25" s="114"/>
-      <c r="AL25" s="114"/>
-      <c r="AM25" s="114"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="114"/>
-      <c r="AP25" s="114"/>
-      <c r="AQ25" s="114"/>
-      <c r="AR25" s="114"/>
-      <c r="AS25" s="115"/>
-      <c r="AT25" s="206" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU25" s="207"/>
-      <c r="AV25" s="207"/>
-      <c r="AW25" s="207"/>
-      <c r="AX25" s="207"/>
-      <c r="AY25" s="207"/>
-      <c r="AZ25" s="208"/>
-      <c r="BA25" s="3"/>
-    </row>
-    <row r="26" spans="1:53" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="117"/>
-      <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="117"/>
-      <c r="AC26" s="117"/>
-      <c r="AD26" s="117"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="118"/>
-      <c r="AT26" s="177"/>
-      <c r="AU26" s="178"/>
-      <c r="AV26" s="178"/>
-      <c r="AW26" s="178"/>
-      <c r="AX26" s="178"/>
-      <c r="AY26" s="178"/>
-      <c r="AZ26" s="179"/>
-      <c r="BA26" s="3"/>
-    </row>
-    <row r="27" spans="1:53" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="131" t="s">
+      <c r="B27" s="304"/>
+      <c r="C27" s="304"/>
+      <c r="D27" s="304"/>
+      <c r="E27" s="304"/>
+      <c r="F27" s="304"/>
+      <c r="G27" s="304"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="291"/>
+      <c r="J27" s="292"/>
+      <c r="K27" s="292"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="292"/>
+      <c r="O27" s="292"/>
+      <c r="P27" s="292"/>
+      <c r="Q27" s="292"/>
+      <c r="R27" s="292"/>
+      <c r="S27" s="292"/>
+      <c r="T27" s="292"/>
+      <c r="U27" s="292"/>
+      <c r="V27" s="292"/>
+      <c r="W27" s="292"/>
+      <c r="X27" s="292"/>
+      <c r="Y27" s="292"/>
+      <c r="Z27" s="292"/>
+      <c r="AA27" s="292"/>
+      <c r="AB27" s="292"/>
+      <c r="AC27" s="292"/>
+      <c r="AD27" s="292"/>
+      <c r="AE27" s="292"/>
+      <c r="AF27" s="292"/>
+      <c r="AG27" s="292"/>
+      <c r="AH27" s="292"/>
+      <c r="AI27" s="292"/>
+      <c r="AJ27" s="292"/>
+      <c r="AK27" s="292"/>
+      <c r="AL27" s="292"/>
+      <c r="AM27" s="292"/>
+      <c r="AN27" s="292"/>
+      <c r="AO27" s="292"/>
+      <c r="AP27" s="292"/>
+      <c r="AQ27" s="292"/>
+      <c r="AR27" s="292"/>
+      <c r="AS27" s="293"/>
+      <c r="AT27" s="341"/>
+      <c r="AU27" s="342"/>
+      <c r="AV27" s="342"/>
+      <c r="AW27" s="342"/>
+      <c r="AX27" s="342"/>
+      <c r="AY27" s="342"/>
+      <c r="AZ27" s="343"/>
+      <c r="BA27" s="3"/>
+    </row>
+    <row r="28" spans="1:53" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="306"/>
+      <c r="B28" s="307"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="307"/>
+      <c r="E28" s="307"/>
+      <c r="F28" s="307"/>
+      <c r="G28" s="307"/>
+      <c r="H28" s="308"/>
+      <c r="I28" s="294"/>
+      <c r="J28" s="295"/>
+      <c r="K28" s="295"/>
+      <c r="L28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="295"/>
+      <c r="O28" s="295"/>
+      <c r="P28" s="295"/>
+      <c r="Q28" s="295"/>
+      <c r="R28" s="295"/>
+      <c r="S28" s="295"/>
+      <c r="T28" s="295"/>
+      <c r="U28" s="295"/>
+      <c r="V28" s="295"/>
+      <c r="W28" s="295"/>
+      <c r="X28" s="295"/>
+      <c r="Y28" s="295"/>
+      <c r="Z28" s="295"/>
+      <c r="AA28" s="295"/>
+      <c r="AB28" s="295"/>
+      <c r="AC28" s="295"/>
+      <c r="AD28" s="295"/>
+      <c r="AE28" s="295"/>
+      <c r="AF28" s="295"/>
+      <c r="AG28" s="295"/>
+      <c r="AH28" s="295"/>
+      <c r="AI28" s="295"/>
+      <c r="AJ28" s="295"/>
+      <c r="AK28" s="295"/>
+      <c r="AL28" s="295"/>
+      <c r="AM28" s="295"/>
+      <c r="AN28" s="295"/>
+      <c r="AO28" s="295"/>
+      <c r="AP28" s="295"/>
+      <c r="AQ28" s="295"/>
+      <c r="AR28" s="295"/>
+      <c r="AS28" s="296"/>
+      <c r="AT28" s="344"/>
+      <c r="AU28" s="345"/>
+      <c r="AV28" s="345"/>
+      <c r="AW28" s="345"/>
+      <c r="AX28" s="345"/>
+      <c r="AY28" s="345"/>
+      <c r="AZ28" s="346"/>
+      <c r="BA28" s="3"/>
+    </row>
+    <row r="29" spans="1:53" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="297" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="120"/>
-      <c r="AM27" s="120"/>
-      <c r="AN27" s="120"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="121"/>
-      <c r="AT27" s="180"/>
-      <c r="AU27" s="181"/>
-      <c r="AV27" s="181"/>
-      <c r="AW27" s="181"/>
-      <c r="AX27" s="181"/>
-      <c r="AY27" s="181"/>
-      <c r="AZ27" s="182"/>
-      <c r="BA27" s="3"/>
-    </row>
-    <row r="28" spans="1:53" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="134"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
-      <c r="M28" s="123"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="123"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="123"/>
-      <c r="X28" s="123"/>
-      <c r="Y28" s="123"/>
-      <c r="Z28" s="123"/>
-      <c r="AA28" s="123"/>
-      <c r="AB28" s="123"/>
-      <c r="AC28" s="123"/>
-      <c r="AD28" s="123"/>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="123"/>
-      <c r="AG28" s="123"/>
-      <c r="AH28" s="123"/>
-      <c r="AI28" s="123"/>
-      <c r="AJ28" s="123"/>
-      <c r="AK28" s="123"/>
-      <c r="AL28" s="123"/>
-      <c r="AM28" s="123"/>
-      <c r="AN28" s="123"/>
-      <c r="AO28" s="123"/>
-      <c r="AP28" s="123"/>
-      <c r="AQ28" s="123"/>
-      <c r="AR28" s="123"/>
-      <c r="AS28" s="124"/>
-      <c r="AT28" s="183"/>
-      <c r="AU28" s="184"/>
-      <c r="AV28" s="184"/>
-      <c r="AW28" s="184"/>
-      <c r="AX28" s="184"/>
-      <c r="AY28" s="184"/>
-      <c r="AZ28" s="185"/>
-      <c r="BA28" s="3"/>
-    </row>
-    <row r="29" spans="1:53" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="125" t="s">
+      <c r="B29" s="298"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="299"/>
+      <c r="I29" s="323"/>
+      <c r="J29" s="324"/>
+      <c r="K29" s="324"/>
+      <c r="L29" s="324"/>
+      <c r="M29" s="324"/>
+      <c r="N29" s="325"/>
+      <c r="O29" s="297" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="298"/>
+      <c r="Q29" s="298"/>
+      <c r="R29" s="298"/>
+      <c r="S29" s="299"/>
+      <c r="T29" s="332"/>
+      <c r="U29" s="333"/>
+      <c r="V29" s="333"/>
+      <c r="W29" s="333"/>
+      <c r="X29" s="333"/>
+      <c r="Y29" s="333"/>
+      <c r="Z29" s="333"/>
+      <c r="AA29" s="333"/>
+      <c r="AB29" s="333"/>
+      <c r="AC29" s="333"/>
+      <c r="AD29" s="333"/>
+      <c r="AE29" s="333"/>
+      <c r="AF29" s="333"/>
+      <c r="AG29" s="333"/>
+      <c r="AH29" s="333"/>
+      <c r="AI29" s="333"/>
+      <c r="AJ29" s="333"/>
+      <c r="AK29" s="333"/>
+      <c r="AL29" s="333"/>
+      <c r="AM29" s="333"/>
+      <c r="AN29" s="333"/>
+      <c r="AO29" s="333"/>
+      <c r="AP29" s="333"/>
+      <c r="AQ29" s="333"/>
+      <c r="AR29" s="333"/>
+      <c r="AS29" s="333"/>
+      <c r="AT29" s="333"/>
+      <c r="AU29" s="333"/>
+      <c r="AV29" s="333"/>
+      <c r="AW29" s="333"/>
+      <c r="AX29" s="333"/>
+      <c r="AY29" s="333"/>
+      <c r="AZ29" s="334"/>
+      <c r="BA29" s="3"/>
+    </row>
+    <row r="30" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="320"/>
+      <c r="B30" s="321"/>
+      <c r="C30" s="321"/>
+      <c r="D30" s="321"/>
+      <c r="E30" s="321"/>
+      <c r="F30" s="321"/>
+      <c r="G30" s="321"/>
+      <c r="H30" s="322"/>
+      <c r="I30" s="326"/>
+      <c r="J30" s="327"/>
+      <c r="K30" s="327"/>
+      <c r="L30" s="327"/>
+      <c r="M30" s="327"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="320"/>
+      <c r="P30" s="321"/>
+      <c r="Q30" s="321"/>
+      <c r="R30" s="321"/>
+      <c r="S30" s="322"/>
+      <c r="T30" s="335"/>
+      <c r="U30" s="336"/>
+      <c r="V30" s="336"/>
+      <c r="W30" s="336"/>
+      <c r="X30" s="336"/>
+      <c r="Y30" s="336"/>
+      <c r="Z30" s="336"/>
+      <c r="AA30" s="336"/>
+      <c r="AB30" s="336"/>
+      <c r="AC30" s="336"/>
+      <c r="AD30" s="336"/>
+      <c r="AE30" s="336"/>
+      <c r="AF30" s="336"/>
+      <c r="AG30" s="336"/>
+      <c r="AH30" s="336"/>
+      <c r="AI30" s="336"/>
+      <c r="AJ30" s="336"/>
+      <c r="AK30" s="336"/>
+      <c r="AL30" s="336"/>
+      <c r="AM30" s="336"/>
+      <c r="AN30" s="336"/>
+      <c r="AO30" s="336"/>
+      <c r="AP30" s="336"/>
+      <c r="AQ30" s="336"/>
+      <c r="AR30" s="336"/>
+      <c r="AS30" s="336"/>
+      <c r="AT30" s="336"/>
+      <c r="AU30" s="336"/>
+      <c r="AV30" s="336"/>
+      <c r="AW30" s="336"/>
+      <c r="AX30" s="336"/>
+      <c r="AY30" s="336"/>
+      <c r="AZ30" s="337"/>
+      <c r="BA30" s="3"/>
+    </row>
+    <row r="31" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="300"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="326"/>
+      <c r="J31" s="327"/>
+      <c r="K31" s="327"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="327"/>
+      <c r="N31" s="328"/>
+      <c r="O31" s="300"/>
+      <c r="P31" s="301"/>
+      <c r="Q31" s="301"/>
+      <c r="R31" s="301"/>
+      <c r="S31" s="302"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="91"/>
+      <c r="AE31" s="91"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="91"/>
+      <c r="AH31" s="91"/>
+      <c r="AI31" s="91"/>
+      <c r="AJ31" s="91"/>
+      <c r="AK31" s="91"/>
+      <c r="AL31" s="91"/>
+      <c r="AM31" s="91"/>
+      <c r="AN31" s="91"/>
+      <c r="AO31" s="91"/>
+      <c r="AP31" s="91"/>
+      <c r="AQ31" s="91"/>
+      <c r="AR31" s="91"/>
+      <c r="AS31" s="91"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="91"/>
+      <c r="AZ31" s="92"/>
+      <c r="BA31" s="3"/>
+    </row>
+    <row r="32" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="303" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="153"/>
-      <c r="L29" s="153"/>
-      <c r="M29" s="153"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="125" t="s">
-        <v>32</v>
+      <c r="B32" s="304"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="304"/>
+      <c r="G32" s="304"/>
+      <c r="H32" s="305"/>
+      <c r="I32" s="326"/>
+      <c r="J32" s="327"/>
+      <c r="K32" s="327"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="328"/>
+      <c r="O32" s="311" t="s">
+        <v>34</v>
       </c>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="161"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-      <c r="AB29" s="162"/>
-      <c r="AC29" s="162"/>
-      <c r="AD29" s="162"/>
-      <c r="AE29" s="162"/>
-      <c r="AF29" s="162"/>
-      <c r="AG29" s="162"/>
-      <c r="AH29" s="162"/>
-      <c r="AI29" s="162"/>
-      <c r="AJ29" s="162"/>
-      <c r="AK29" s="162"/>
-      <c r="AL29" s="162"/>
-      <c r="AM29" s="162"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="162"/>
-      <c r="AP29" s="162"/>
-      <c r="AQ29" s="162"/>
-      <c r="AR29" s="162"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="162"/>
-      <c r="AU29" s="162"/>
-      <c r="AV29" s="162"/>
-      <c r="AW29" s="162"/>
-      <c r="AX29" s="162"/>
-      <c r="AY29" s="162"/>
-      <c r="AZ29" s="163"/>
-      <c r="BA29" s="3"/>
-    </row>
-    <row r="30" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="149"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="150"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="151"/>
-      <c r="T30" s="164"/>
-      <c r="U30" s="165"/>
-      <c r="V30" s="165"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="165"/>
-      <c r="Y30" s="165"/>
-      <c r="Z30" s="165"/>
-      <c r="AA30" s="165"/>
-      <c r="AB30" s="165"/>
-      <c r="AC30" s="165"/>
-      <c r="AD30" s="165"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="165"/>
-      <c r="AG30" s="165"/>
-      <c r="AH30" s="165"/>
-      <c r="AI30" s="165"/>
-      <c r="AJ30" s="165"/>
-      <c r="AK30" s="165"/>
-      <c r="AL30" s="165"/>
-      <c r="AM30" s="165"/>
-      <c r="AN30" s="165"/>
-      <c r="AO30" s="165"/>
-      <c r="AP30" s="165"/>
-      <c r="AQ30" s="165"/>
-      <c r="AR30" s="165"/>
-      <c r="AS30" s="165"/>
-      <c r="AT30" s="165"/>
-      <c r="AU30" s="165"/>
-      <c r="AV30" s="165"/>
-      <c r="AW30" s="165"/>
-      <c r="AX30" s="165"/>
-      <c r="AY30" s="165"/>
-      <c r="AZ30" s="166"/>
-      <c r="BA30" s="3"/>
-    </row>
-    <row r="31" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="128"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="129"/>
-      <c r="Q31" s="129"/>
-      <c r="R31" s="129"/>
-      <c r="S31" s="130"/>
-      <c r="T31" s="364"/>
-      <c r="U31" s="365"/>
-      <c r="V31" s="365"/>
-      <c r="W31" s="365"/>
-      <c r="X31" s="365"/>
-      <c r="Y31" s="365"/>
-      <c r="Z31" s="365"/>
-      <c r="AA31" s="365"/>
-      <c r="AB31" s="365"/>
-      <c r="AC31" s="365"/>
-      <c r="AD31" s="365"/>
-      <c r="AE31" s="365"/>
-      <c r="AF31" s="365"/>
-      <c r="AG31" s="365"/>
-      <c r="AH31" s="365"/>
-      <c r="AI31" s="365"/>
-      <c r="AJ31" s="365"/>
-      <c r="AK31" s="365"/>
-      <c r="AL31" s="365"/>
-      <c r="AM31" s="365"/>
-      <c r="AN31" s="365"/>
-      <c r="AO31" s="365"/>
-      <c r="AP31" s="365"/>
-      <c r="AQ31" s="365"/>
-      <c r="AR31" s="365"/>
-      <c r="AS31" s="365"/>
-      <c r="AT31" s="365"/>
-      <c r="AU31" s="365"/>
-      <c r="AV31" s="365"/>
-      <c r="AW31" s="365"/>
-      <c r="AX31" s="365"/>
-      <c r="AY31" s="365"/>
-      <c r="AZ31" s="366"/>
-      <c r="BA31" s="3"/>
-    </row>
-    <row r="32" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="132"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="140" t="s">
-        <v>35</v>
-      </c>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="142"/>
-      <c r="T32" s="367"/>
-      <c r="U32" s="368"/>
-      <c r="V32" s="368"/>
-      <c r="W32" s="368"/>
-      <c r="X32" s="368"/>
-      <c r="Y32" s="368"/>
-      <c r="Z32" s="368"/>
-      <c r="AA32" s="368"/>
-      <c r="AB32" s="368"/>
-      <c r="AC32" s="368"/>
-      <c r="AD32" s="368"/>
-      <c r="AE32" s="368"/>
-      <c r="AF32" s="368"/>
-      <c r="AG32" s="368"/>
-      <c r="AH32" s="368"/>
-      <c r="AI32" s="368"/>
-      <c r="AJ32" s="368"/>
-      <c r="AK32" s="368"/>
-      <c r="AL32" s="368"/>
-      <c r="AM32" s="368"/>
-      <c r="AN32" s="368"/>
-      <c r="AO32" s="368"/>
-      <c r="AP32" s="368"/>
-      <c r="AQ32" s="368"/>
-      <c r="AR32" s="368"/>
-      <c r="AS32" s="368"/>
-      <c r="AT32" s="368"/>
-      <c r="AU32" s="368"/>
-      <c r="AV32" s="368"/>
-      <c r="AW32" s="368"/>
-      <c r="AX32" s="368"/>
-      <c r="AY32" s="368"/>
-      <c r="AZ32" s="369"/>
+      <c r="P32" s="312"/>
+      <c r="Q32" s="312"/>
+      <c r="R32" s="312"/>
+      <c r="S32" s="313"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="94"/>
+      <c r="AK32" s="94"/>
+      <c r="AL32" s="94"/>
+      <c r="AM32" s="94"/>
+      <c r="AN32" s="94"/>
+      <c r="AO32" s="94"/>
+      <c r="AP32" s="94"/>
+      <c r="AQ32" s="94"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="94"/>
+      <c r="AU32" s="94"/>
+      <c r="AV32" s="94"/>
+      <c r="AW32" s="94"/>
+      <c r="AX32" s="94"/>
+      <c r="AY32" s="94"/>
+      <c r="AZ32" s="95"/>
       <c r="BA32" s="3"/>
     </row>
     <row r="33" spans="1:53" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="140"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="141"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="140"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="142"/>
-      <c r="T33" s="370"/>
-      <c r="U33" s="371"/>
-      <c r="V33" s="371"/>
-      <c r="W33" s="371"/>
-      <c r="X33" s="371"/>
-      <c r="Y33" s="371"/>
-      <c r="Z33" s="371"/>
-      <c r="AA33" s="371"/>
-      <c r="AB33" s="371"/>
-      <c r="AC33" s="371"/>
-      <c r="AD33" s="371"/>
-      <c r="AE33" s="371"/>
-      <c r="AF33" s="371"/>
-      <c r="AG33" s="371"/>
-      <c r="AH33" s="371"/>
-      <c r="AI33" s="371"/>
-      <c r="AJ33" s="371"/>
-      <c r="AK33" s="371"/>
-      <c r="AL33" s="371"/>
-      <c r="AM33" s="371"/>
-      <c r="AN33" s="371"/>
-      <c r="AO33" s="371"/>
-      <c r="AP33" s="371"/>
-      <c r="AQ33" s="371"/>
-      <c r="AR33" s="371"/>
-      <c r="AS33" s="371"/>
-      <c r="AT33" s="371"/>
-      <c r="AU33" s="371"/>
-      <c r="AV33" s="371"/>
-      <c r="AW33" s="371"/>
-      <c r="AX33" s="371"/>
-      <c r="AY33" s="371"/>
-      <c r="AZ33" s="372"/>
+      <c r="A33" s="311"/>
+      <c r="B33" s="312"/>
+      <c r="C33" s="312"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="313"/>
+      <c r="I33" s="326"/>
+      <c r="J33" s="327"/>
+      <c r="K33" s="327"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="328"/>
+      <c r="O33" s="311"/>
+      <c r="P33" s="312"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="312"/>
+      <c r="S33" s="313"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="97"/>
+      <c r="V33" s="97"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="97"/>
+      <c r="Z33" s="97"/>
+      <c r="AA33" s="97"/>
+      <c r="AB33" s="97"/>
+      <c r="AC33" s="97"/>
+      <c r="AD33" s="97"/>
+      <c r="AE33" s="97"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+      <c r="AH33" s="97"/>
+      <c r="AI33" s="97"/>
+      <c r="AJ33" s="97"/>
+      <c r="AK33" s="97"/>
+      <c r="AL33" s="97"/>
+      <c r="AM33" s="97"/>
+      <c r="AN33" s="97"/>
+      <c r="AO33" s="97"/>
+      <c r="AP33" s="97"/>
+      <c r="AQ33" s="97"/>
+      <c r="AR33" s="97"/>
+      <c r="AS33" s="97"/>
+      <c r="AT33" s="97"/>
+      <c r="AU33" s="97"/>
+      <c r="AV33" s="97"/>
+      <c r="AW33" s="97"/>
+      <c r="AX33" s="97"/>
+      <c r="AY33" s="97"/>
+      <c r="AZ33" s="98"/>
       <c r="BA33" s="3"/>
     </row>
     <row r="34" spans="1:53" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="158"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="160"/>
-      <c r="O34" s="134"/>
-      <c r="P34" s="135"/>
-      <c r="Q34" s="135"/>
-      <c r="R34" s="135"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="373"/>
-      <c r="U34" s="374"/>
-      <c r="V34" s="374"/>
-      <c r="W34" s="374"/>
-      <c r="X34" s="374"/>
-      <c r="Y34" s="374"/>
-      <c r="Z34" s="374"/>
-      <c r="AA34" s="374"/>
-      <c r="AB34" s="374"/>
-      <c r="AC34" s="374"/>
-      <c r="AD34" s="374"/>
-      <c r="AE34" s="374"/>
-      <c r="AF34" s="374"/>
-      <c r="AG34" s="374"/>
-      <c r="AH34" s="374"/>
-      <c r="AI34" s="374"/>
-      <c r="AJ34" s="374"/>
-      <c r="AK34" s="374"/>
-      <c r="AL34" s="374"/>
-      <c r="AM34" s="374"/>
-      <c r="AN34" s="374"/>
-      <c r="AO34" s="374"/>
-      <c r="AP34" s="374"/>
-      <c r="AQ34" s="374"/>
-      <c r="AR34" s="374"/>
-      <c r="AS34" s="374"/>
-      <c r="AT34" s="374"/>
-      <c r="AU34" s="374"/>
-      <c r="AV34" s="374"/>
-      <c r="AW34" s="374"/>
-      <c r="AX34" s="374"/>
-      <c r="AY34" s="374"/>
-      <c r="AZ34" s="375"/>
+      <c r="A34" s="306"/>
+      <c r="B34" s="307"/>
+      <c r="C34" s="307"/>
+      <c r="D34" s="307"/>
+      <c r="E34" s="307"/>
+      <c r="F34" s="307"/>
+      <c r="G34" s="307"/>
+      <c r="H34" s="308"/>
+      <c r="I34" s="329"/>
+      <c r="J34" s="330"/>
+      <c r="K34" s="330"/>
+      <c r="L34" s="330"/>
+      <c r="M34" s="330"/>
+      <c r="N34" s="331"/>
+      <c r="O34" s="306"/>
+      <c r="P34" s="307"/>
+      <c r="Q34" s="307"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="308"/>
+      <c r="T34" s="99"/>
+      <c r="U34" s="100"/>
+      <c r="V34" s="100"/>
+      <c r="W34" s="100"/>
+      <c r="X34" s="100"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="100"/>
+      <c r="AA34" s="100"/>
+      <c r="AB34" s="100"/>
+      <c r="AC34" s="100"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="100"/>
+      <c r="AF34" s="100"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="100"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="100"/>
+      <c r="AN34" s="100"/>
+      <c r="AO34" s="100"/>
+      <c r="AP34" s="100"/>
+      <c r="AQ34" s="100"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="100"/>
+      <c r="AT34" s="100"/>
+      <c r="AU34" s="100"/>
+      <c r="AV34" s="100"/>
+      <c r="AW34" s="100"/>
+      <c r="AX34" s="100"/>
+      <c r="AY34" s="100"/>
+      <c r="AZ34" s="101"/>
       <c r="BA34" s="3"/>
     </row>
     <row r="35" spans="1:53" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -6327,19 +6326,19 @@
       <c r="BA35" s="3"/>
     </row>
     <row r="36" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="344" t="s">
-        <v>48</v>
+      <c r="A36" s="71" t="s">
+        <v>47</v>
       </c>
-      <c r="B36" s="344"/>
-      <c r="C36" s="344"/>
-      <c r="D36" s="344"/>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
-      <c r="H36" s="344"/>
-      <c r="I36" s="344"/>
-      <c r="J36" s="344"/>
-      <c r="K36" s="344"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
@@ -6353,14 +6352,14 @@
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="112"/>
-      <c r="AA36" s="112"/>
-      <c r="AB36" s="112"/>
-      <c r="AC36" s="112"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="112"/>
-      <c r="AF36" s="112"/>
+      <c r="Y36" s="284"/>
+      <c r="Z36" s="284"/>
+      <c r="AA36" s="284"/>
+      <c r="AB36" s="284"/>
+      <c r="AC36" s="284"/>
+      <c r="AD36" s="284"/>
+      <c r="AE36" s="284"/>
+      <c r="AF36" s="284"/>
       <c r="AG36" s="5"/>
       <c r="AH36" s="5"/>
       <c r="AI36" s="5"/>
@@ -6384,17 +6383,17 @@
       <c r="BA36" s="4"/>
     </row>
     <row r="37" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="344"/>
-      <c r="B37" s="344"/>
-      <c r="C37" s="344"/>
-      <c r="D37" s="344"/>
-      <c r="E37" s="344"/>
-      <c r="F37" s="344"/>
-      <c r="G37" s="344"/>
-      <c r="H37" s="344"/>
-      <c r="I37" s="344"/>
-      <c r="J37" s="344"/>
-      <c r="K37" s="344"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
@@ -6408,14 +6407,14 @@
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="112"/>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="112"/>
-      <c r="AB37" s="112"/>
-      <c r="AC37" s="112"/>
-      <c r="AD37" s="112"/>
-      <c r="AE37" s="112"/>
-      <c r="AF37" s="112"/>
+      <c r="Y37" s="284"/>
+      <c r="Z37" s="284"/>
+      <c r="AA37" s="284"/>
+      <c r="AB37" s="284"/>
+      <c r="AC37" s="284"/>
+      <c r="AD37" s="284"/>
+      <c r="AE37" s="284"/>
+      <c r="AF37" s="284"/>
       <c r="AG37" s="5"/>
       <c r="AH37" s="5"/>
       <c r="AI37" s="5"/>
@@ -6530,31 +6529,31 @@
       <c r="AH39" s="22"/>
       <c r="AI39" s="22"/>
       <c r="AJ39" s="22"/>
-      <c r="AK39" s="214" t="s">
-        <v>45</v>
+      <c r="AK39" s="190" t="s">
+        <v>44</v>
       </c>
-      <c r="AL39" s="214"/>
-      <c r="AM39" s="214"/>
-      <c r="AN39" s="214"/>
-      <c r="AO39" s="215"/>
-      <c r="AP39" s="191">
+      <c r="AL39" s="190"/>
+      <c r="AM39" s="190"/>
+      <c r="AN39" s="190"/>
+      <c r="AO39" s="191"/>
+      <c r="AP39" s="198">
         <v>1</v>
       </c>
-      <c r="AQ39" s="217" t="s">
-        <v>49</v>
+      <c r="AQ39" s="118" t="s">
+        <v>48</v>
       </c>
-      <c r="AR39" s="217"/>
-      <c r="AS39" s="193"/>
-      <c r="AT39" s="221">
+      <c r="AR39" s="118"/>
+      <c r="AS39" s="194"/>
+      <c r="AT39" s="200">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="216"/>
-      <c r="AV39" s="216"/>
-      <c r="AW39" s="216"/>
-      <c r="AX39" s="216"/>
-      <c r="AY39" s="216"/>
-      <c r="AZ39" s="216"/>
+      <c r="AU39" s="193"/>
+      <c r="AV39" s="193"/>
+      <c r="AW39" s="193"/>
+      <c r="AX39" s="193"/>
+      <c r="AY39" s="193"/>
+      <c r="AZ39" s="193"/>
       <c r="BA39" s="6"/>
     </row>
     <row r="40" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6594,603 +6593,603 @@
       <c r="AH40" s="22"/>
       <c r="AI40" s="22"/>
       <c r="AJ40" s="22"/>
-      <c r="AK40" s="219" t="s">
+      <c r="AK40" s="196" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL40" s="196"/>
+      <c r="AM40" s="196"/>
+      <c r="AN40" s="196"/>
+      <c r="AO40" s="197"/>
+      <c r="AP40" s="199"/>
+      <c r="AQ40" s="119"/>
+      <c r="AR40" s="119"/>
+      <c r="AS40" s="195"/>
+      <c r="AT40" s="200"/>
+      <c r="AU40" s="193"/>
+      <c r="AV40" s="193"/>
+      <c r="AW40" s="193"/>
+      <c r="AX40" s="193"/>
+      <c r="AY40" s="193"/>
+      <c r="AZ40" s="193"/>
+      <c r="BA40" s="6"/>
+    </row>
+    <row r="41" spans="1:53" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="238" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="144"/>
+      <c r="T41" s="144"/>
+      <c r="U41" s="144"/>
+      <c r="V41" s="144"/>
+      <c r="W41" s="144"/>
+      <c r="X41" s="144"/>
+      <c r="Y41" s="144"/>
+      <c r="Z41" s="144"/>
+      <c r="AA41" s="144"/>
+      <c r="AB41" s="144"/>
+      <c r="AC41" s="144"/>
+      <c r="AD41" s="144"/>
+      <c r="AE41" s="144"/>
+      <c r="AF41" s="144"/>
+      <c r="AG41" s="144"/>
+      <c r="AH41" s="144"/>
+      <c r="AI41" s="144"/>
+      <c r="AJ41" s="144"/>
+      <c r="AK41" s="144"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="144"/>
+      <c r="AN41" s="144"/>
+      <c r="AO41" s="144"/>
+      <c r="AP41" s="144"/>
+      <c r="AQ41" s="144"/>
+      <c r="AR41" s="144"/>
+      <c r="AS41" s="144"/>
+      <c r="AT41" s="144"/>
+      <c r="AU41" s="144"/>
+      <c r="AV41" s="144"/>
+      <c r="AW41" s="144"/>
+      <c r="AX41" s="144"/>
+      <c r="AY41" s="144"/>
+      <c r="AZ41" s="144"/>
+    </row>
+    <row r="42" spans="1:53" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="207"/>
+      <c r="B42" s="207"/>
+      <c r="C42" s="207"/>
+      <c r="D42" s="207"/>
+      <c r="E42" s="207"/>
+      <c r="F42" s="207"/>
+      <c r="G42" s="207"/>
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="207"/>
+      <c r="M42" s="207"/>
+      <c r="N42" s="207"/>
+      <c r="O42" s="207"/>
+      <c r="P42" s="207"/>
+      <c r="Q42" s="207"/>
+      <c r="R42" s="207"/>
+      <c r="S42" s="207"/>
+      <c r="T42" s="207"/>
+      <c r="U42" s="207"/>
+      <c r="V42" s="207"/>
+      <c r="W42" s="207"/>
+      <c r="X42" s="207"/>
+      <c r="Y42" s="207"/>
+      <c r="Z42" s="207"/>
+      <c r="AA42" s="207"/>
+      <c r="AB42" s="207"/>
+      <c r="AC42" s="207"/>
+      <c r="AD42" s="207"/>
+      <c r="AE42" s="207"/>
+      <c r="AF42" s="207"/>
+      <c r="AG42" s="207"/>
+      <c r="AH42" s="207"/>
+      <c r="AI42" s="207"/>
+      <c r="AJ42" s="207"/>
+      <c r="AK42" s="207"/>
+      <c r="AL42" s="207"/>
+      <c r="AM42" s="207"/>
+      <c r="AN42" s="207"/>
+      <c r="AO42" s="207"/>
+      <c r="AP42" s="207"/>
+      <c r="AQ42" s="207"/>
+      <c r="AR42" s="207"/>
+      <c r="AS42" s="207"/>
+      <c r="AT42" s="207"/>
+      <c r="AU42" s="207"/>
+      <c r="AV42" s="207"/>
+      <c r="AW42" s="207"/>
+      <c r="AX42" s="207"/>
+      <c r="AY42" s="207"/>
+      <c r="AZ42" s="207"/>
+    </row>
+    <row r="43" spans="1:53" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="86"/>
+      <c r="O43" s="86"/>
+      <c r="P43" s="86"/>
+      <c r="Q43" s="86"/>
+      <c r="R43" s="86"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="86"/>
+      <c r="U43" s="86"/>
+      <c r="V43" s="86"/>
+      <c r="W43" s="86"/>
+      <c r="X43" s="86"/>
+      <c r="Y43" s="86"/>
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="86"/>
+      <c r="AC43" s="86"/>
+      <c r="AD43" s="86"/>
+      <c r="AE43" s="86"/>
+      <c r="AF43" s="86"/>
+      <c r="AG43" s="86"/>
+      <c r="AH43" s="86"/>
+      <c r="AI43" s="86"/>
+      <c r="AJ43" s="86"/>
+      <c r="AK43" s="86"/>
+      <c r="AL43" s="86"/>
+      <c r="AM43" s="86"/>
+      <c r="AN43" s="86"/>
+      <c r="AO43" s="86"/>
+      <c r="AP43" s="86"/>
+      <c r="AQ43" s="86"/>
+      <c r="AR43" s="86"/>
+      <c r="AS43" s="86"/>
+      <c r="AT43" s="86"/>
+      <c r="AU43" s="86"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="86"/>
+      <c r="AY43" s="86"/>
+      <c r="AZ43" s="86"/>
+      <c r="BA43" s="55"/>
+    </row>
+    <row r="44" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="208" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="209"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="209"/>
+      <c r="M44" s="209"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="209"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="209"/>
+      <c r="R44" s="209"/>
+      <c r="S44" s="209"/>
+      <c r="T44" s="209"/>
+      <c r="U44" s="209"/>
+      <c r="V44" s="209"/>
+      <c r="W44" s="208" t="s">
+        <v>64</v>
+      </c>
+      <c r="X44" s="209"/>
+      <c r="Y44" s="209"/>
+      <c r="Z44" s="209"/>
+      <c r="AA44" s="210"/>
+      <c r="AB44" s="208" t="s">
         <v>46</v>
       </c>
-      <c r="AL40" s="219"/>
-      <c r="AM40" s="219"/>
-      <c r="AN40" s="219"/>
-      <c r="AO40" s="220"/>
-      <c r="AP40" s="194"/>
-      <c r="AQ40" s="218"/>
-      <c r="AR40" s="218"/>
-      <c r="AS40" s="196"/>
-      <c r="AT40" s="221"/>
-      <c r="AU40" s="216"/>
-      <c r="AV40" s="216"/>
-      <c r="AW40" s="216"/>
-      <c r="AX40" s="216"/>
-      <c r="AY40" s="216"/>
-      <c r="AZ40" s="216"/>
-      <c r="BA40" s="6"/>
-    </row>
-    <row r="41" spans="1:53" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="186" t="s">
-        <v>55</v>
+      <c r="AC44" s="209"/>
+      <c r="AD44" s="209"/>
+      <c r="AE44" s="210"/>
+      <c r="AF44" s="209" t="s">
+        <v>62</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="187"/>
-      <c r="P41" s="187"/>
-      <c r="Q41" s="187"/>
-      <c r="R41" s="187"/>
-      <c r="S41" s="187"/>
-      <c r="T41" s="187"/>
-      <c r="U41" s="187"/>
-      <c r="V41" s="187"/>
-      <c r="W41" s="187"/>
-      <c r="X41" s="187"/>
-      <c r="Y41" s="187"/>
-      <c r="Z41" s="187"/>
-      <c r="AA41" s="187"/>
-      <c r="AB41" s="187"/>
-      <c r="AC41" s="187"/>
-      <c r="AD41" s="187"/>
-      <c r="AE41" s="187"/>
-      <c r="AF41" s="187"/>
-      <c r="AG41" s="187"/>
-      <c r="AH41" s="187"/>
-      <c r="AI41" s="187"/>
-      <c r="AJ41" s="187"/>
-      <c r="AK41" s="187"/>
-      <c r="AL41" s="187"/>
-      <c r="AM41" s="187"/>
-      <c r="AN41" s="187"/>
-      <c r="AO41" s="187"/>
-      <c r="AP41" s="187"/>
-      <c r="AQ41" s="187"/>
-      <c r="AR41" s="187"/>
-      <c r="AS41" s="187"/>
-      <c r="AT41" s="187"/>
-      <c r="AU41" s="187"/>
-      <c r="AV41" s="187"/>
-      <c r="AW41" s="187"/>
-      <c r="AX41" s="187"/>
-      <c r="AY41" s="187"/>
-      <c r="AZ41" s="187"/>
-    </row>
-    <row r="42" spans="1:53" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="297"/>
-      <c r="B42" s="297"/>
-      <c r="C42" s="297"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="297"/>
-      <c r="I42" s="297"/>
-      <c r="J42" s="297"/>
-      <c r="K42" s="297"/>
-      <c r="L42" s="297"/>
-      <c r="M42" s="297"/>
-      <c r="N42" s="297"/>
-      <c r="O42" s="297"/>
-      <c r="P42" s="297"/>
-      <c r="Q42" s="297"/>
-      <c r="R42" s="297"/>
-      <c r="S42" s="297"/>
-      <c r="T42" s="297"/>
-      <c r="U42" s="297"/>
-      <c r="V42" s="297"/>
-      <c r="W42" s="297"/>
-      <c r="X42" s="297"/>
-      <c r="Y42" s="297"/>
-      <c r="Z42" s="297"/>
-      <c r="AA42" s="297"/>
-      <c r="AB42" s="297"/>
-      <c r="AC42" s="297"/>
-      <c r="AD42" s="297"/>
-      <c r="AE42" s="297"/>
-      <c r="AF42" s="297"/>
-      <c r="AG42" s="297"/>
-      <c r="AH42" s="297"/>
-      <c r="AI42" s="297"/>
-      <c r="AJ42" s="297"/>
-      <c r="AK42" s="297"/>
-      <c r="AL42" s="297"/>
-      <c r="AM42" s="297"/>
-      <c r="AN42" s="297"/>
-      <c r="AO42" s="297"/>
-      <c r="AP42" s="297"/>
-      <c r="AQ42" s="297"/>
-      <c r="AR42" s="297"/>
-      <c r="AS42" s="297"/>
-      <c r="AT42" s="297"/>
-      <c r="AU42" s="297"/>
-      <c r="AV42" s="297"/>
-      <c r="AW42" s="297"/>
-      <c r="AX42" s="297"/>
-      <c r="AY42" s="297"/>
-      <c r="AZ42" s="297"/>
-    </row>
-    <row r="43" spans="1:53" ht="38.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="357" t="s">
+      <c r="AG44" s="209"/>
+      <c r="AH44" s="210"/>
+      <c r="AI44" s="209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ44" s="209"/>
+      <c r="AK44" s="209"/>
+      <c r="AL44" s="209"/>
+      <c r="AM44" s="209"/>
+      <c r="AN44" s="210"/>
+      <c r="AO44" s="217" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP44" s="218"/>
+      <c r="AQ44" s="218"/>
+      <c r="AR44" s="218"/>
+      <c r="AS44" s="219"/>
+      <c r="AT44" s="232" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU44" s="232"/>
+      <c r="AV44" s="232"/>
+      <c r="AW44" s="232"/>
+      <c r="AX44" s="232"/>
+      <c r="AY44" s="232"/>
+      <c r="AZ44" s="233"/>
+      <c r="BA44" s="55"/>
+    </row>
+    <row r="45" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="83"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="212"/>
+      <c r="N45" s="212"/>
+      <c r="O45" s="212"/>
+      <c r="P45" s="212"/>
+      <c r="Q45" s="212"/>
+      <c r="R45" s="212"/>
+      <c r="S45" s="212"/>
+      <c r="T45" s="212"/>
+      <c r="U45" s="212"/>
+      <c r="V45" s="212"/>
+      <c r="W45" s="211"/>
+      <c r="X45" s="212"/>
+      <c r="Y45" s="212"/>
+      <c r="Z45" s="212"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="211"/>
+      <c r="AC45" s="212"/>
+      <c r="AD45" s="212"/>
+      <c r="AE45" s="213"/>
+      <c r="AF45" s="212"/>
+      <c r="AG45" s="212"/>
+      <c r="AH45" s="213"/>
+      <c r="AI45" s="212"/>
+      <c r="AJ45" s="212"/>
+      <c r="AK45" s="212"/>
+      <c r="AL45" s="212"/>
+      <c r="AM45" s="212"/>
+      <c r="AN45" s="213"/>
+      <c r="AO45" s="220"/>
+      <c r="AP45" s="221"/>
+      <c r="AQ45" s="221"/>
+      <c r="AR45" s="221"/>
+      <c r="AS45" s="222"/>
+      <c r="AT45" s="234"/>
+      <c r="AU45" s="234"/>
+      <c r="AV45" s="234"/>
+      <c r="AW45" s="234"/>
+      <c r="AX45" s="234"/>
+      <c r="AY45" s="234"/>
+      <c r="AZ45" s="235"/>
+      <c r="BA45" s="55"/>
+    </row>
+    <row r="46" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="84"/>
+      <c r="I46" s="211"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212"/>
+      <c r="L46" s="212"/>
+      <c r="M46" s="212"/>
+      <c r="N46" s="212"/>
+      <c r="O46" s="212"/>
+      <c r="P46" s="212"/>
+      <c r="Q46" s="212"/>
+      <c r="R46" s="212"/>
+      <c r="S46" s="212"/>
+      <c r="T46" s="212"/>
+      <c r="U46" s="212"/>
+      <c r="V46" s="212"/>
+      <c r="W46" s="211"/>
+      <c r="X46" s="212"/>
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="212"/>
+      <c r="AA46" s="213"/>
+      <c r="AB46" s="211"/>
+      <c r="AC46" s="212"/>
+      <c r="AD46" s="212"/>
+      <c r="AE46" s="213"/>
+      <c r="AF46" s="212"/>
+      <c r="AG46" s="212"/>
+      <c r="AH46" s="213"/>
+      <c r="AI46" s="212"/>
+      <c r="AJ46" s="212"/>
+      <c r="AK46" s="212"/>
+      <c r="AL46" s="212"/>
+      <c r="AM46" s="212"/>
+      <c r="AN46" s="213"/>
+      <c r="AO46" s="220"/>
+      <c r="AP46" s="221"/>
+      <c r="AQ46" s="221"/>
+      <c r="AR46" s="221"/>
+      <c r="AS46" s="222"/>
+      <c r="AT46" s="234"/>
+      <c r="AU46" s="234"/>
+      <c r="AV46" s="234"/>
+      <c r="AW46" s="234"/>
+      <c r="AX46" s="234"/>
+      <c r="AY46" s="234"/>
+      <c r="AZ46" s="235"/>
+      <c r="BA46" s="55"/>
+    </row>
+    <row r="47" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="83"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="83"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="214"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="215"/>
+      <c r="L47" s="215"/>
+      <c r="M47" s="215"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="215"/>
+      <c r="P47" s="215"/>
+      <c r="Q47" s="215"/>
+      <c r="R47" s="215"/>
+      <c r="S47" s="215"/>
+      <c r="T47" s="215"/>
+      <c r="U47" s="215"/>
+      <c r="V47" s="215"/>
+      <c r="W47" s="214"/>
+      <c r="X47" s="215"/>
+      <c r="Y47" s="215"/>
+      <c r="Z47" s="215"/>
+      <c r="AA47" s="216"/>
+      <c r="AB47" s="214"/>
+      <c r="AC47" s="215"/>
+      <c r="AD47" s="215"/>
+      <c r="AE47" s="216"/>
+      <c r="AF47" s="215"/>
+      <c r="AG47" s="215"/>
+      <c r="AH47" s="216"/>
+      <c r="AI47" s="215"/>
+      <c r="AJ47" s="215"/>
+      <c r="AK47" s="215"/>
+      <c r="AL47" s="215"/>
+      <c r="AM47" s="215"/>
+      <c r="AN47" s="216"/>
+      <c r="AO47" s="223"/>
+      <c r="AP47" s="224"/>
+      <c r="AQ47" s="224"/>
+      <c r="AR47" s="224"/>
+      <c r="AS47" s="225"/>
+      <c r="AT47" s="236"/>
+      <c r="AU47" s="236"/>
+      <c r="AV47" s="236"/>
+      <c r="AW47" s="236"/>
+      <c r="AX47" s="236"/>
+      <c r="AY47" s="236"/>
+      <c r="AZ47" s="237"/>
+      <c r="BA47" s="55"/>
+    </row>
+    <row r="48" spans="1:53" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="74">
+        <v>1</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
+      <c r="K48" s="205"/>
+      <c r="L48" s="205"/>
+      <c r="M48" s="205"/>
+      <c r="N48" s="205"/>
+      <c r="O48" s="205"/>
+      <c r="P48" s="205"/>
+      <c r="Q48" s="205"/>
+      <c r="R48" s="205"/>
+      <c r="S48" s="205"/>
+      <c r="T48" s="205"/>
+      <c r="U48" s="205"/>
+      <c r="V48" s="206"/>
+      <c r="W48" s="204"/>
+      <c r="X48" s="205"/>
+      <c r="Y48" s="205"/>
+      <c r="Z48" s="205"/>
+      <c r="AA48" s="206"/>
+      <c r="AB48" s="270"/>
+      <c r="AC48" s="271"/>
+      <c r="AD48" s="271"/>
+      <c r="AE48" s="272"/>
+      <c r="AF48" s="267"/>
+      <c r="AG48" s="268"/>
+      <c r="AH48" s="269"/>
+      <c r="AI48" s="226"/>
+      <c r="AJ48" s="227"/>
+      <c r="AK48" s="227"/>
+      <c r="AL48" s="227"/>
+      <c r="AM48" s="227"/>
+      <c r="AN48" s="228"/>
+      <c r="AO48" s="229"/>
+      <c r="AP48" s="230"/>
+      <c r="AQ48" s="230"/>
+      <c r="AR48" s="230"/>
+      <c r="AS48" s="231"/>
+      <c r="AT48" s="265"/>
+      <c r="AU48" s="265"/>
+      <c r="AV48" s="265"/>
+      <c r="AW48" s="265"/>
+      <c r="AX48" s="265"/>
+      <c r="AY48" s="265"/>
+      <c r="AZ48" s="266"/>
+      <c r="BA48" s="55"/>
+    </row>
+    <row r="49" spans="1:54" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="102">
+        <v>2</v>
+      </c>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="107"/>
+      <c r="P49" s="107"/>
+      <c r="Q49" s="107"/>
+      <c r="R49" s="107"/>
+      <c r="S49" s="107"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="107"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="107"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="108"/>
+      <c r="AB49" s="109"/>
+      <c r="AC49" s="110"/>
+      <c r="AD49" s="110"/>
+      <c r="AE49" s="111"/>
+      <c r="AF49" s="112"/>
+      <c r="AG49" s="113"/>
+      <c r="AH49" s="114"/>
+      <c r="AI49" s="115"/>
+      <c r="AJ49" s="116"/>
+      <c r="AK49" s="116"/>
+      <c r="AL49" s="116"/>
+      <c r="AM49" s="116"/>
+      <c r="AN49" s="117"/>
+      <c r="AO49" s="87"/>
+      <c r="AP49" s="88"/>
+      <c r="AQ49" s="88"/>
+      <c r="AR49" s="88"/>
+      <c r="AS49" s="89"/>
+      <c r="AT49" s="262"/>
+      <c r="AU49" s="263"/>
+      <c r="AV49" s="263"/>
+      <c r="AW49" s="263"/>
+      <c r="AX49" s="263"/>
+      <c r="AY49" s="263"/>
+      <c r="AZ49" s="264"/>
+      <c r="BA49" s="55"/>
+    </row>
+    <row r="50" spans="1:54" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="358"/>
-      <c r="C43" s="358"/>
-      <c r="D43" s="358"/>
-      <c r="E43" s="358"/>
-      <c r="F43" s="358"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
-      <c r="K43" s="358"/>
-      <c r="L43" s="358"/>
-      <c r="M43" s="358"/>
-      <c r="N43" s="358"/>
-      <c r="O43" s="358"/>
-      <c r="P43" s="358"/>
-      <c r="Q43" s="358"/>
-      <c r="R43" s="358"/>
-      <c r="S43" s="358"/>
-      <c r="T43" s="358"/>
-      <c r="U43" s="358"/>
-      <c r="V43" s="358"/>
-      <c r="W43" s="358"/>
-      <c r="X43" s="358"/>
-      <c r="Y43" s="358"/>
-      <c r="Z43" s="358"/>
-      <c r="AA43" s="358"/>
-      <c r="AB43" s="358"/>
-      <c r="AC43" s="358"/>
-      <c r="AD43" s="358"/>
-      <c r="AE43" s="358"/>
-      <c r="AF43" s="358"/>
-      <c r="AG43" s="358"/>
-      <c r="AH43" s="358"/>
-      <c r="AI43" s="358"/>
-      <c r="AJ43" s="358"/>
-      <c r="AK43" s="358"/>
-      <c r="AL43" s="358"/>
-      <c r="AM43" s="358"/>
-      <c r="AN43" s="358"/>
-      <c r="AO43" s="358"/>
-      <c r="AP43" s="358"/>
-      <c r="AQ43" s="358"/>
-      <c r="AR43" s="358"/>
-      <c r="AS43" s="358"/>
-      <c r="AT43" s="358"/>
-      <c r="AU43" s="358"/>
-      <c r="AV43" s="358"/>
-      <c r="AW43" s="358"/>
-      <c r="AX43" s="358"/>
-      <c r="AY43" s="358"/>
-      <c r="AZ43" s="358"/>
-      <c r="BA43" s="55"/>
-    </row>
-    <row r="44" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="352" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="352"/>
-      <c r="C44" s="353"/>
-      <c r="D44" s="354" t="s">
-        <v>36</v>
-      </c>
-      <c r="E44" s="355"/>
-      <c r="F44" s="355"/>
-      <c r="G44" s="355"/>
-      <c r="H44" s="356"/>
-      <c r="I44" s="298" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="299"/>
-      <c r="K44" s="299"/>
-      <c r="L44" s="299"/>
-      <c r="M44" s="299"/>
-      <c r="N44" s="299"/>
-      <c r="O44" s="299"/>
-      <c r="P44" s="299"/>
-      <c r="Q44" s="299"/>
-      <c r="R44" s="299"/>
-      <c r="S44" s="299"/>
-      <c r="T44" s="299"/>
-      <c r="U44" s="299"/>
-      <c r="V44" s="299"/>
-      <c r="W44" s="298" t="s">
-        <v>65</v>
-      </c>
-      <c r="X44" s="299"/>
-      <c r="Y44" s="299"/>
-      <c r="Z44" s="299"/>
-      <c r="AA44" s="300"/>
-      <c r="AB44" s="298" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC44" s="299"/>
-      <c r="AD44" s="299"/>
-      <c r="AE44" s="300"/>
-      <c r="AF44" s="299" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG44" s="299"/>
-      <c r="AH44" s="300"/>
-      <c r="AI44" s="299" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ44" s="299"/>
-      <c r="AK44" s="299"/>
-      <c r="AL44" s="299"/>
-      <c r="AM44" s="299"/>
-      <c r="AN44" s="300"/>
-      <c r="AO44" s="307" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP44" s="308"/>
-      <c r="AQ44" s="308"/>
-      <c r="AR44" s="308"/>
-      <c r="AS44" s="309"/>
-      <c r="AT44" s="322" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU44" s="322"/>
-      <c r="AV44" s="322"/>
-      <c r="AW44" s="322"/>
-      <c r="AX44" s="322"/>
-      <c r="AY44" s="322"/>
-      <c r="AZ44" s="323"/>
-      <c r="BA44" s="55"/>
-    </row>
-    <row r="45" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="352"/>
-      <c r="B45" s="352"/>
-      <c r="C45" s="353"/>
-      <c r="D45" s="354"/>
-      <c r="E45" s="355"/>
-      <c r="F45" s="355"/>
-      <c r="G45" s="355"/>
-      <c r="H45" s="356"/>
-      <c r="I45" s="301"/>
-      <c r="J45" s="302"/>
-      <c r="K45" s="302"/>
-      <c r="L45" s="302"/>
-      <c r="M45" s="302"/>
-      <c r="N45" s="302"/>
-      <c r="O45" s="302"/>
-      <c r="P45" s="302"/>
-      <c r="Q45" s="302"/>
-      <c r="R45" s="302"/>
-      <c r="S45" s="302"/>
-      <c r="T45" s="302"/>
-      <c r="U45" s="302"/>
-      <c r="V45" s="302"/>
-      <c r="W45" s="301"/>
-      <c r="X45" s="302"/>
-      <c r="Y45" s="302"/>
-      <c r="Z45" s="302"/>
-      <c r="AA45" s="303"/>
-      <c r="AB45" s="301"/>
-      <c r="AC45" s="302"/>
-      <c r="AD45" s="302"/>
-      <c r="AE45" s="303"/>
-      <c r="AF45" s="302"/>
-      <c r="AG45" s="302"/>
-      <c r="AH45" s="303"/>
-      <c r="AI45" s="302"/>
-      <c r="AJ45" s="302"/>
-      <c r="AK45" s="302"/>
-      <c r="AL45" s="302"/>
-      <c r="AM45" s="302"/>
-      <c r="AN45" s="303"/>
-      <c r="AO45" s="310"/>
-      <c r="AP45" s="311"/>
-      <c r="AQ45" s="311"/>
-      <c r="AR45" s="311"/>
-      <c r="AS45" s="312"/>
-      <c r="AT45" s="324"/>
-      <c r="AU45" s="324"/>
-      <c r="AV45" s="324"/>
-      <c r="AW45" s="324"/>
-      <c r="AX45" s="324"/>
-      <c r="AY45" s="324"/>
-      <c r="AZ45" s="325"/>
-      <c r="BA45" s="55"/>
-    </row>
-    <row r="46" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="352"/>
-      <c r="B46" s="352"/>
-      <c r="C46" s="353"/>
-      <c r="D46" s="354"/>
-      <c r="E46" s="355"/>
-      <c r="F46" s="355"/>
-      <c r="G46" s="355"/>
-      <c r="H46" s="356"/>
-      <c r="I46" s="301"/>
-      <c r="J46" s="302"/>
-      <c r="K46" s="302"/>
-      <c r="L46" s="302"/>
-      <c r="M46" s="302"/>
-      <c r="N46" s="302"/>
-      <c r="O46" s="302"/>
-      <c r="P46" s="302"/>
-      <c r="Q46" s="302"/>
-      <c r="R46" s="302"/>
-      <c r="S46" s="302"/>
-      <c r="T46" s="302"/>
-      <c r="U46" s="302"/>
-      <c r="V46" s="302"/>
-      <c r="W46" s="301"/>
-      <c r="X46" s="302"/>
-      <c r="Y46" s="302"/>
-      <c r="Z46" s="302"/>
-      <c r="AA46" s="303"/>
-      <c r="AB46" s="301"/>
-      <c r="AC46" s="302"/>
-      <c r="AD46" s="302"/>
-      <c r="AE46" s="303"/>
-      <c r="AF46" s="302"/>
-      <c r="AG46" s="302"/>
-      <c r="AH46" s="303"/>
-      <c r="AI46" s="302"/>
-      <c r="AJ46" s="302"/>
-      <c r="AK46" s="302"/>
-      <c r="AL46" s="302"/>
-      <c r="AM46" s="302"/>
-      <c r="AN46" s="303"/>
-      <c r="AO46" s="310"/>
-      <c r="AP46" s="311"/>
-      <c r="AQ46" s="311"/>
-      <c r="AR46" s="311"/>
-      <c r="AS46" s="312"/>
-      <c r="AT46" s="324"/>
-      <c r="AU46" s="324"/>
-      <c r="AV46" s="324"/>
-      <c r="AW46" s="324"/>
-      <c r="AX46" s="324"/>
-      <c r="AY46" s="324"/>
-      <c r="AZ46" s="325"/>
-      <c r="BA46" s="55"/>
-    </row>
-    <row r="47" spans="1:53" ht="19.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="352"/>
-      <c r="B47" s="352"/>
-      <c r="C47" s="353"/>
-      <c r="D47" s="354"/>
-      <c r="E47" s="355"/>
-      <c r="F47" s="355"/>
-      <c r="G47" s="355"/>
-      <c r="H47" s="356"/>
-      <c r="I47" s="304"/>
-      <c r="J47" s="305"/>
-      <c r="K47" s="305"/>
-      <c r="L47" s="305"/>
-      <c r="M47" s="305"/>
-      <c r="N47" s="305"/>
-      <c r="O47" s="305"/>
-      <c r="P47" s="305"/>
-      <c r="Q47" s="305"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="305"/>
-      <c r="T47" s="305"/>
-      <c r="U47" s="305"/>
-      <c r="V47" s="305"/>
-      <c r="W47" s="304"/>
-      <c r="X47" s="305"/>
-      <c r="Y47" s="305"/>
-      <c r="Z47" s="305"/>
-      <c r="AA47" s="306"/>
-      <c r="AB47" s="304"/>
-      <c r="AC47" s="305"/>
-      <c r="AD47" s="305"/>
-      <c r="AE47" s="306"/>
-      <c r="AF47" s="305"/>
-      <c r="AG47" s="305"/>
-      <c r="AH47" s="306"/>
-      <c r="AI47" s="305"/>
-      <c r="AJ47" s="305"/>
-      <c r="AK47" s="305"/>
-      <c r="AL47" s="305"/>
-      <c r="AM47" s="305"/>
-      <c r="AN47" s="306"/>
-      <c r="AO47" s="313"/>
-      <c r="AP47" s="314"/>
-      <c r="AQ47" s="314"/>
-      <c r="AR47" s="314"/>
-      <c r="AS47" s="315"/>
-      <c r="AT47" s="326"/>
-      <c r="AU47" s="326"/>
-      <c r="AV47" s="326"/>
-      <c r="AW47" s="326"/>
-      <c r="AX47" s="326"/>
-      <c r="AY47" s="326"/>
-      <c r="AZ47" s="327"/>
-      <c r="BA47" s="55"/>
-    </row>
-    <row r="48" spans="1:53" ht="37.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="347">
-        <v>1</v>
-      </c>
-      <c r="B48" s="346"/>
-      <c r="C48" s="346"/>
-      <c r="D48" s="345"/>
-      <c r="E48" s="346"/>
-      <c r="F48" s="346"/>
-      <c r="G48" s="346"/>
-      <c r="H48" s="346"/>
-      <c r="I48" s="294"/>
-      <c r="J48" s="295"/>
-      <c r="K48" s="295"/>
-      <c r="L48" s="295"/>
-      <c r="M48" s="295"/>
-      <c r="N48" s="295"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="295"/>
-      <c r="Q48" s="295"/>
-      <c r="R48" s="295"/>
-      <c r="S48" s="295"/>
-      <c r="T48" s="295"/>
-      <c r="U48" s="295"/>
-      <c r="V48" s="296"/>
-      <c r="W48" s="294"/>
-      <c r="X48" s="295"/>
-      <c r="Y48" s="295"/>
-      <c r="Z48" s="295"/>
-      <c r="AA48" s="296"/>
-      <c r="AB48" s="333"/>
-      <c r="AC48" s="334"/>
-      <c r="AD48" s="334"/>
-      <c r="AE48" s="335"/>
-      <c r="AF48" s="330"/>
-      <c r="AG48" s="331"/>
-      <c r="AH48" s="332"/>
-      <c r="AI48" s="316"/>
-      <c r="AJ48" s="317"/>
-      <c r="AK48" s="317"/>
-      <c r="AL48" s="317"/>
-      <c r="AM48" s="317"/>
-      <c r="AN48" s="318"/>
-      <c r="AO48" s="319"/>
-      <c r="AP48" s="320"/>
-      <c r="AQ48" s="320"/>
-      <c r="AR48" s="320"/>
-      <c r="AS48" s="321"/>
-      <c r="AT48" s="328"/>
-      <c r="AU48" s="328"/>
-      <c r="AV48" s="328"/>
-      <c r="AW48" s="328"/>
-      <c r="AX48" s="328"/>
-      <c r="AY48" s="328"/>
-      <c r="AZ48" s="329"/>
-      <c r="BA48" s="55"/>
-    </row>
-    <row r="49" spans="1:54" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="378">
-        <v>2</v>
-      </c>
-      <c r="B49" s="379"/>
-      <c r="C49" s="379"/>
-      <c r="D49" s="380"/>
-      <c r="E49" s="381"/>
-      <c r="F49" s="381"/>
-      <c r="G49" s="381"/>
-      <c r="H49" s="381"/>
-      <c r="I49" s="382"/>
-      <c r="J49" s="383"/>
-      <c r="K49" s="383"/>
-      <c r="L49" s="383"/>
-      <c r="M49" s="383"/>
-      <c r="N49" s="383"/>
-      <c r="O49" s="383"/>
-      <c r="P49" s="383"/>
-      <c r="Q49" s="383"/>
-      <c r="R49" s="383"/>
-      <c r="S49" s="383"/>
-      <c r="T49" s="383"/>
-      <c r="U49" s="383"/>
-      <c r="V49" s="384"/>
-      <c r="W49" s="382"/>
-      <c r="X49" s="383"/>
-      <c r="Y49" s="383"/>
-      <c r="Z49" s="383"/>
-      <c r="AA49" s="384"/>
-      <c r="AB49" s="385"/>
-      <c r="AC49" s="386"/>
-      <c r="AD49" s="386"/>
-      <c r="AE49" s="387"/>
-      <c r="AF49" s="388"/>
-      <c r="AG49" s="389"/>
-      <c r="AH49" s="390"/>
-      <c r="AI49" s="391"/>
-      <c r="AJ49" s="392"/>
-      <c r="AK49" s="392"/>
-      <c r="AL49" s="392"/>
-      <c r="AM49" s="392"/>
-      <c r="AN49" s="393"/>
-      <c r="AO49" s="359"/>
-      <c r="AP49" s="360"/>
-      <c r="AQ49" s="360"/>
-      <c r="AR49" s="360"/>
-      <c r="AS49" s="361"/>
-      <c r="AT49" s="211"/>
-      <c r="AU49" s="212"/>
-      <c r="AV49" s="212"/>
-      <c r="AW49" s="212"/>
-      <c r="AX49" s="212"/>
-      <c r="AY49" s="212"/>
-      <c r="AZ49" s="213"/>
-      <c r="BA49" s="55"/>
-    </row>
-    <row r="50" spans="1:54" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="222" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
-      <c r="Q50" s="168"/>
-      <c r="R50" s="168"/>
-      <c r="S50" s="168"/>
-      <c r="T50" s="168"/>
-      <c r="U50" s="168"/>
-      <c r="V50" s="168"/>
-      <c r="W50" s="168"/>
-      <c r="X50" s="168"/>
-      <c r="Y50" s="168"/>
-      <c r="Z50" s="168"/>
-      <c r="AA50" s="168"/>
-      <c r="AB50" s="168"/>
-      <c r="AC50" s="168"/>
-      <c r="AD50" s="168"/>
-      <c r="AE50" s="168"/>
-      <c r="AF50" s="168"/>
-      <c r="AG50" s="168"/>
-      <c r="AH50" s="168"/>
-      <c r="AI50" s="168"/>
-      <c r="AJ50" s="168"/>
-      <c r="AK50" s="168"/>
-      <c r="AL50" s="168"/>
-      <c r="AM50" s="168"/>
-      <c r="AN50" s="168"/>
-      <c r="AO50" s="168"/>
-      <c r="AP50" s="168"/>
-      <c r="AQ50" s="168"/>
-      <c r="AR50" s="168"/>
-      <c r="AS50" s="169"/>
-      <c r="AT50" s="209">
+      <c r="B50" s="202"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="202"/>
+      <c r="F50" s="202"/>
+      <c r="G50" s="202"/>
+      <c r="H50" s="202"/>
+      <c r="I50" s="202"/>
+      <c r="J50" s="202"/>
+      <c r="K50" s="202"/>
+      <c r="L50" s="202"/>
+      <c r="M50" s="202"/>
+      <c r="N50" s="202"/>
+      <c r="O50" s="202"/>
+      <c r="P50" s="202"/>
+      <c r="Q50" s="202"/>
+      <c r="R50" s="202"/>
+      <c r="S50" s="202"/>
+      <c r="T50" s="202"/>
+      <c r="U50" s="202"/>
+      <c r="V50" s="202"/>
+      <c r="W50" s="202"/>
+      <c r="X50" s="202"/>
+      <c r="Y50" s="202"/>
+      <c r="Z50" s="202"/>
+      <c r="AA50" s="202"/>
+      <c r="AB50" s="202"/>
+      <c r="AC50" s="202"/>
+      <c r="AD50" s="202"/>
+      <c r="AE50" s="202"/>
+      <c r="AF50" s="202"/>
+      <c r="AG50" s="202"/>
+      <c r="AH50" s="202"/>
+      <c r="AI50" s="202"/>
+      <c r="AJ50" s="202"/>
+      <c r="AK50" s="202"/>
+      <c r="AL50" s="202"/>
+      <c r="AM50" s="202"/>
+      <c r="AN50" s="202"/>
+      <c r="AO50" s="202"/>
+      <c r="AP50" s="202"/>
+      <c r="AQ50" s="202"/>
+      <c r="AR50" s="202"/>
+      <c r="AS50" s="203"/>
+      <c r="AT50" s="260">
         <f>SUM(AT48:AZ49)</f>
         <v>0</v>
       </c>
-      <c r="AU50" s="209"/>
-      <c r="AV50" s="209"/>
-      <c r="AW50" s="209"/>
-      <c r="AX50" s="209"/>
-      <c r="AY50" s="209"/>
-      <c r="AZ50" s="210"/>
+      <c r="AU50" s="260"/>
+      <c r="AV50" s="260"/>
+      <c r="AW50" s="260"/>
+      <c r="AX50" s="260"/>
+      <c r="AY50" s="260"/>
+      <c r="AZ50" s="261"/>
     </row>
     <row r="51" spans="1:54" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A51" s="46"/>
@@ -7301,301 +7300,301 @@
       <c r="AZ52" s="48"/>
     </row>
     <row r="53" spans="1:54" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="348" t="s">
+      <c r="A53" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="76"/>
+      <c r="S53" s="76"/>
+      <c r="T53" s="76"/>
+      <c r="U53" s="76"/>
+      <c r="V53" s="76"/>
+      <c r="W53" s="76"/>
+      <c r="X53" s="76"/>
+      <c r="Y53" s="76"/>
+      <c r="Z53" s="76"/>
+      <c r="AA53" s="76"/>
+      <c r="AB53" s="76"/>
+      <c r="AC53" s="76"/>
+      <c r="AD53" s="76"/>
+      <c r="AE53" s="76"/>
+      <c r="AF53" s="76"/>
+      <c r="AG53" s="76"/>
+      <c r="AH53" s="76"/>
+      <c r="AI53" s="76"/>
+      <c r="AJ53" s="76"/>
+      <c r="AK53" s="76"/>
+      <c r="AL53" s="76"/>
+      <c r="AM53" s="76"/>
+      <c r="AN53" s="76"/>
+      <c r="AO53" s="76"/>
+      <c r="AP53" s="76"/>
+      <c r="AQ53" s="76"/>
+      <c r="AR53" s="76"/>
+      <c r="AS53" s="76"/>
+      <c r="AT53" s="76"/>
+      <c r="AU53" s="76"/>
+      <c r="AV53" s="76"/>
+      <c r="AW53" s="76"/>
+      <c r="AX53" s="76"/>
+      <c r="AY53" s="76"/>
+      <c r="AZ53" s="77"/>
+    </row>
+    <row r="54" spans="1:54" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="78"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="383" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="384"/>
+      <c r="F54" s="384"/>
+      <c r="G54" s="384"/>
+      <c r="H54" s="385"/>
+      <c r="I54" s="388" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="349"/>
-      <c r="C53" s="349"/>
-      <c r="D53" s="349"/>
-      <c r="E53" s="349"/>
-      <c r="F53" s="349"/>
-      <c r="G53" s="349"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="349"/>
-      <c r="J53" s="349"/>
-      <c r="K53" s="349"/>
-      <c r="L53" s="349"/>
-      <c r="M53" s="349"/>
-      <c r="N53" s="349"/>
-      <c r="O53" s="349"/>
-      <c r="P53" s="349"/>
-      <c r="Q53" s="349"/>
-      <c r="R53" s="349"/>
-      <c r="S53" s="349"/>
-      <c r="T53" s="349"/>
-      <c r="U53" s="349"/>
-      <c r="V53" s="349"/>
-      <c r="W53" s="349"/>
-      <c r="X53" s="349"/>
-      <c r="Y53" s="349"/>
-      <c r="Z53" s="349"/>
-      <c r="AA53" s="349"/>
-      <c r="AB53" s="349"/>
-      <c r="AC53" s="349"/>
-      <c r="AD53" s="349"/>
-      <c r="AE53" s="349"/>
-      <c r="AF53" s="349"/>
-      <c r="AG53" s="349"/>
-      <c r="AH53" s="349"/>
-      <c r="AI53" s="349"/>
-      <c r="AJ53" s="349"/>
-      <c r="AK53" s="349"/>
-      <c r="AL53" s="349"/>
-      <c r="AM53" s="349"/>
-      <c r="AN53" s="349"/>
-      <c r="AO53" s="349"/>
-      <c r="AP53" s="349"/>
-      <c r="AQ53" s="349"/>
-      <c r="AR53" s="349"/>
-      <c r="AS53" s="349"/>
-      <c r="AT53" s="349"/>
-      <c r="AU53" s="349"/>
-      <c r="AV53" s="349"/>
-      <c r="AW53" s="349"/>
-      <c r="AX53" s="349"/>
-      <c r="AY53" s="349"/>
-      <c r="AZ53" s="350"/>
-    </row>
-    <row r="54" spans="1:54" ht="71.400000000000006" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="351" t="s">
-        <v>33</v>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
+      <c r="L54" s="202"/>
+      <c r="M54" s="202"/>
+      <c r="N54" s="202"/>
+      <c r="O54" s="202"/>
+      <c r="P54" s="202"/>
+      <c r="Q54" s="202"/>
+      <c r="R54" s="202"/>
+      <c r="S54" s="202"/>
+      <c r="T54" s="202"/>
+      <c r="U54" s="202"/>
+      <c r="V54" s="202"/>
+      <c r="W54" s="202"/>
+      <c r="X54" s="202"/>
+      <c r="Y54" s="202"/>
+      <c r="Z54" s="202"/>
+      <c r="AA54" s="203"/>
+      <c r="AB54" s="370" t="s">
+        <v>66</v>
       </c>
-      <c r="B54" s="351"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="99" t="s">
-        <v>68</v>
+      <c r="AC54" s="371"/>
+      <c r="AD54" s="371"/>
+      <c r="AE54" s="371"/>
+      <c r="AF54" s="372"/>
+      <c r="AG54" s="247" t="s">
+        <v>73</v>
       </c>
-      <c r="E54" s="100"/>
-      <c r="F54" s="100"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="167" t="s">
+      <c r="AH54" s="248"/>
+      <c r="AI54" s="248"/>
+      <c r="AJ54" s="248"/>
+      <c r="AK54" s="248"/>
+      <c r="AL54" s="249"/>
+      <c r="AM54" s="248" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN54" s="248"/>
+      <c r="AO54" s="248"/>
+      <c r="AP54" s="248"/>
+      <c r="AQ54" s="248"/>
+      <c r="AR54" s="248"/>
+      <c r="AS54" s="250" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
-      <c r="M54" s="168"/>
-      <c r="N54" s="168"/>
-      <c r="O54" s="168"/>
-      <c r="P54" s="168"/>
-      <c r="Q54" s="168"/>
-      <c r="R54" s="168"/>
-      <c r="S54" s="168"/>
-      <c r="T54" s="168"/>
-      <c r="U54" s="168"/>
-      <c r="V54" s="168"/>
-      <c r="W54" s="168"/>
-      <c r="X54" s="168"/>
-      <c r="Y54" s="168"/>
-      <c r="Z54" s="168"/>
-      <c r="AA54" s="169"/>
-      <c r="AB54" s="79" t="s">
-        <v>67</v>
+      <c r="AT54" s="251"/>
+      <c r="AU54" s="251"/>
+      <c r="AV54" s="251"/>
+      <c r="AW54" s="251"/>
+      <c r="AX54" s="251"/>
+      <c r="AY54" s="251"/>
+      <c r="AZ54" s="252"/>
+    </row>
+    <row r="55" spans="1:54" ht="41.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="276">
+        <v>3</v>
       </c>
-      <c r="AC54" s="80"/>
-      <c r="AD54" s="80"/>
-      <c r="AE54" s="80"/>
-      <c r="AF54" s="81"/>
-      <c r="AG54" s="200" t="s">
-        <v>74</v>
+      <c r="B55" s="277"/>
+      <c r="C55" s="277"/>
+      <c r="D55" s="273"/>
+      <c r="E55" s="274"/>
+      <c r="F55" s="274"/>
+      <c r="G55" s="274"/>
+      <c r="H55" s="275"/>
+      <c r="I55" s="389"/>
+      <c r="J55" s="390"/>
+      <c r="K55" s="390"/>
+      <c r="L55" s="390"/>
+      <c r="M55" s="390"/>
+      <c r="N55" s="390"/>
+      <c r="O55" s="390"/>
+      <c r="P55" s="390"/>
+      <c r="Q55" s="390"/>
+      <c r="R55" s="390"/>
+      <c r="S55" s="390"/>
+      <c r="T55" s="390"/>
+      <c r="U55" s="390"/>
+      <c r="V55" s="390"/>
+      <c r="W55" s="390"/>
+      <c r="X55" s="390"/>
+      <c r="Y55" s="390"/>
+      <c r="Z55" s="390"/>
+      <c r="AA55" s="391"/>
+      <c r="AB55" s="273"/>
+      <c r="AC55" s="373"/>
+      <c r="AD55" s="373"/>
+      <c r="AE55" s="373"/>
+      <c r="AF55" s="374"/>
+      <c r="AG55" s="253"/>
+      <c r="AH55" s="254"/>
+      <c r="AI55" s="254"/>
+      <c r="AJ55" s="254"/>
+      <c r="AK55" s="254"/>
+      <c r="AL55" s="255"/>
+      <c r="AM55" s="253"/>
+      <c r="AN55" s="254"/>
+      <c r="AO55" s="254"/>
+      <c r="AP55" s="254"/>
+      <c r="AQ55" s="254"/>
+      <c r="AR55" s="255"/>
+      <c r="AS55" s="377"/>
+      <c r="AT55" s="378"/>
+      <c r="AU55" s="378"/>
+      <c r="AV55" s="378"/>
+      <c r="AW55" s="378"/>
+      <c r="AX55" s="378"/>
+      <c r="AY55" s="378"/>
+      <c r="AZ55" s="379"/>
+      <c r="BA55" s="55"/>
+    </row>
+    <row r="56" spans="1:54" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="386">
+        <v>4</v>
       </c>
-      <c r="AH54" s="176"/>
-      <c r="AI54" s="176"/>
-      <c r="AJ54" s="176"/>
-      <c r="AK54" s="176"/>
-      <c r="AL54" s="201"/>
-      <c r="AM54" s="176" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN54" s="176"/>
-      <c r="AO54" s="176"/>
-      <c r="AP54" s="176"/>
-      <c r="AQ54" s="176"/>
-      <c r="AR54" s="176"/>
-      <c r="AS54" s="202" t="s">
+      <c r="B56" s="387"/>
+      <c r="C56" s="387"/>
+      <c r="D56" s="367"/>
+      <c r="E56" s="368"/>
+      <c r="F56" s="368"/>
+      <c r="G56" s="368"/>
+      <c r="H56" s="369"/>
+      <c r="I56" s="392"/>
+      <c r="J56" s="393"/>
+      <c r="K56" s="393"/>
+      <c r="L56" s="393"/>
+      <c r="M56" s="393"/>
+      <c r="N56" s="393"/>
+      <c r="O56" s="393"/>
+      <c r="P56" s="393"/>
+      <c r="Q56" s="393"/>
+      <c r="R56" s="393"/>
+      <c r="S56" s="393"/>
+      <c r="T56" s="393"/>
+      <c r="U56" s="393"/>
+      <c r="V56" s="393"/>
+      <c r="W56" s="393"/>
+      <c r="X56" s="393"/>
+      <c r="Y56" s="393"/>
+      <c r="Z56" s="393"/>
+      <c r="AA56" s="394"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="375"/>
+      <c r="AD56" s="375"/>
+      <c r="AE56" s="375"/>
+      <c r="AF56" s="376"/>
+      <c r="AG56" s="256"/>
+      <c r="AH56" s="257"/>
+      <c r="AI56" s="257"/>
+      <c r="AJ56" s="257"/>
+      <c r="AK56" s="257"/>
+      <c r="AL56" s="258"/>
+      <c r="AM56" s="256"/>
+      <c r="AN56" s="257"/>
+      <c r="AO56" s="257"/>
+      <c r="AP56" s="257"/>
+      <c r="AQ56" s="257"/>
+      <c r="AR56" s="258"/>
+      <c r="AS56" s="380"/>
+      <c r="AT56" s="381"/>
+      <c r="AU56" s="381"/>
+      <c r="AV56" s="381"/>
+      <c r="AW56" s="381"/>
+      <c r="AX56" s="381"/>
+      <c r="AY56" s="381"/>
+      <c r="AZ56" s="382"/>
+      <c r="BA56" s="55"/>
+    </row>
+    <row r="57" spans="1:54" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="AT54" s="203"/>
-      <c r="AU54" s="203"/>
-      <c r="AV54" s="203"/>
-      <c r="AW54" s="203"/>
-      <c r="AX54" s="203"/>
-      <c r="AY54" s="203"/>
-      <c r="AZ54" s="204"/>
-    </row>
-    <row r="55" spans="1:54" ht="41.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="376">
-        <v>3</v>
-      </c>
-      <c r="B55" s="377"/>
-      <c r="C55" s="377"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="362"/>
-      <c r="F55" s="362"/>
-      <c r="G55" s="362"/>
-      <c r="H55" s="363"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
-      <c r="M55" s="171"/>
-      <c r="N55" s="171"/>
-      <c r="O55" s="171"/>
-      <c r="P55" s="171"/>
-      <c r="Q55" s="171"/>
-      <c r="R55" s="171"/>
-      <c r="S55" s="171"/>
-      <c r="T55" s="171"/>
-      <c r="U55" s="171"/>
-      <c r="V55" s="171"/>
-      <c r="W55" s="171"/>
-      <c r="X55" s="171"/>
-      <c r="Y55" s="171"/>
-      <c r="Z55" s="171"/>
-      <c r="AA55" s="172"/>
-      <c r="AB55" s="82"/>
-      <c r="AC55" s="83"/>
-      <c r="AD55" s="83"/>
-      <c r="AE55" s="83"/>
-      <c r="AF55" s="84"/>
-      <c r="AG55" s="87"/>
-      <c r="AH55" s="88"/>
-      <c r="AI55" s="88"/>
-      <c r="AJ55" s="88"/>
-      <c r="AK55" s="88"/>
-      <c r="AL55" s="89"/>
-      <c r="AM55" s="87"/>
-      <c r="AN55" s="88"/>
-      <c r="AO55" s="88"/>
-      <c r="AP55" s="88"/>
-      <c r="AQ55" s="88"/>
-      <c r="AR55" s="89"/>
-      <c r="AS55" s="90"/>
-      <c r="AT55" s="91"/>
-      <c r="AU55" s="91"/>
-      <c r="AV55" s="91"/>
-      <c r="AW55" s="91"/>
-      <c r="AX55" s="91"/>
-      <c r="AY55" s="91"/>
-      <c r="AZ55" s="92"/>
-      <c r="BA55" s="55"/>
-    </row>
-    <row r="56" spans="1:54" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="102">
-        <v>4</v>
-      </c>
-      <c r="B56" s="103"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
-      <c r="M56" s="174"/>
-      <c r="N56" s="174"/>
-      <c r="O56" s="174"/>
-      <c r="P56" s="174"/>
-      <c r="Q56" s="174"/>
-      <c r="R56" s="174"/>
-      <c r="S56" s="174"/>
-      <c r="T56" s="174"/>
-      <c r="U56" s="174"/>
-      <c r="V56" s="174"/>
-      <c r="W56" s="174"/>
-      <c r="X56" s="174"/>
-      <c r="Y56" s="174"/>
-      <c r="Z56" s="174"/>
-      <c r="AA56" s="175"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="85"/>
-      <c r="AD56" s="85"/>
-      <c r="AE56" s="85"/>
-      <c r="AF56" s="86"/>
-      <c r="AG56" s="93"/>
-      <c r="AH56" s="94"/>
-      <c r="AI56" s="94"/>
-      <c r="AJ56" s="94"/>
-      <c r="AK56" s="94"/>
-      <c r="AL56" s="95"/>
-      <c r="AM56" s="93"/>
-      <c r="AN56" s="94"/>
-      <c r="AO56" s="94"/>
-      <c r="AP56" s="94"/>
-      <c r="AQ56" s="94"/>
-      <c r="AR56" s="95"/>
-      <c r="AS56" s="96"/>
-      <c r="AT56" s="97"/>
-      <c r="AU56" s="97"/>
-      <c r="AV56" s="97"/>
-      <c r="AW56" s="97"/>
-      <c r="AX56" s="97"/>
-      <c r="AY56" s="97"/>
-      <c r="AZ56" s="98"/>
-      <c r="BA56" s="55"/>
-    </row>
-    <row r="57" spans="1:54" ht="40.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
-      <c r="T57" s="75"/>
-      <c r="U57" s="75"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
-      <c r="X57" s="75"/>
-      <c r="Y57" s="75"/>
-      <c r="Z57" s="75"/>
-      <c r="AA57" s="75"/>
-      <c r="AB57" s="75"/>
-      <c r="AC57" s="75"/>
-      <c r="AD57" s="75"/>
-      <c r="AE57" s="75"/>
-      <c r="AF57" s="75"/>
-      <c r="AG57" s="75"/>
-      <c r="AH57" s="75"/>
-      <c r="AI57" s="75"/>
-      <c r="AJ57" s="75"/>
-      <c r="AK57" s="75"/>
-      <c r="AL57" s="75"/>
-      <c r="AM57" s="75"/>
-      <c r="AN57" s="75"/>
-      <c r="AO57" s="75"/>
-      <c r="AP57" s="75"/>
-      <c r="AQ57" s="75"/>
-      <c r="AR57" s="75"/>
-      <c r="AS57" s="71">
+      <c r="B57" s="366"/>
+      <c r="C57" s="366"/>
+      <c r="D57" s="366"/>
+      <c r="E57" s="366"/>
+      <c r="F57" s="366"/>
+      <c r="G57" s="366"/>
+      <c r="H57" s="366"/>
+      <c r="I57" s="366"/>
+      <c r="J57" s="366"/>
+      <c r="K57" s="366"/>
+      <c r="L57" s="366"/>
+      <c r="M57" s="366"/>
+      <c r="N57" s="366"/>
+      <c r="O57" s="366"/>
+      <c r="P57" s="366"/>
+      <c r="Q57" s="366"/>
+      <c r="R57" s="366"/>
+      <c r="S57" s="366"/>
+      <c r="T57" s="366"/>
+      <c r="U57" s="366"/>
+      <c r="V57" s="366"/>
+      <c r="W57" s="366"/>
+      <c r="X57" s="366"/>
+      <c r="Y57" s="366"/>
+      <c r="Z57" s="366"/>
+      <c r="AA57" s="366"/>
+      <c r="AB57" s="366"/>
+      <c r="AC57" s="366"/>
+      <c r="AD57" s="366"/>
+      <c r="AE57" s="366"/>
+      <c r="AF57" s="366"/>
+      <c r="AG57" s="366"/>
+      <c r="AH57" s="366"/>
+      <c r="AI57" s="366"/>
+      <c r="AJ57" s="366"/>
+      <c r="AK57" s="366"/>
+      <c r="AL57" s="366"/>
+      <c r="AM57" s="366"/>
+      <c r="AN57" s="366"/>
+      <c r="AO57" s="366"/>
+      <c r="AP57" s="366"/>
+      <c r="AQ57" s="366"/>
+      <c r="AR57" s="366"/>
+      <c r="AS57" s="363">
         <f>SUM(AS55:AZ56)</f>
         <v>0</v>
       </c>
-      <c r="AT57" s="72"/>
-      <c r="AU57" s="72"/>
-      <c r="AV57" s="72"/>
-      <c r="AW57" s="72"/>
-      <c r="AX57" s="72"/>
-      <c r="AY57" s="72"/>
-      <c r="AZ57" s="73"/>
+      <c r="AT57" s="364"/>
+      <c r="AU57" s="364"/>
+      <c r="AV57" s="364"/>
+      <c r="AW57" s="364"/>
+      <c r="AX57" s="364"/>
+      <c r="AY57" s="364"/>
+      <c r="AZ57" s="365"/>
     </row>
     <row r="58" spans="1:54" ht="19.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A58" s="46"/>
@@ -7708,63 +7707,63 @@
       <c r="BB59" s="4"/>
     </row>
     <row r="60" spans="1:54" ht="39" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="69" t="s">
-        <v>58</v>
+      <c r="A60" s="361" t="s">
+        <v>57</v>
       </c>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="70"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="70"/>
-      <c r="N60" s="70"/>
-      <c r="O60" s="70"/>
-      <c r="P60" s="70"/>
-      <c r="Q60" s="70"/>
-      <c r="R60" s="70"/>
-      <c r="S60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="U60" s="70"/>
-      <c r="V60" s="70"/>
-      <c r="W60" s="70"/>
-      <c r="X60" s="70"/>
-      <c r="Y60" s="70"/>
-      <c r="Z60" s="70"/>
-      <c r="AA60" s="70"/>
-      <c r="AB60" s="70"/>
-      <c r="AC60" s="70"/>
-      <c r="AD60" s="70"/>
-      <c r="AE60" s="70"/>
-      <c r="AF60" s="70"/>
-      <c r="AG60" s="70"/>
-      <c r="AH60" s="70"/>
-      <c r="AI60" s="70"/>
-      <c r="AJ60" s="70"/>
-      <c r="AK60" s="70"/>
-      <c r="AL60" s="70"/>
-      <c r="AM60" s="71">
+      <c r="B60" s="362"/>
+      <c r="C60" s="362"/>
+      <c r="D60" s="362"/>
+      <c r="E60" s="362"/>
+      <c r="F60" s="362"/>
+      <c r="G60" s="362"/>
+      <c r="H60" s="362"/>
+      <c r="I60" s="362"/>
+      <c r="J60" s="362"/>
+      <c r="K60" s="362"/>
+      <c r="L60" s="362"/>
+      <c r="M60" s="362"/>
+      <c r="N60" s="362"/>
+      <c r="O60" s="362"/>
+      <c r="P60" s="362"/>
+      <c r="Q60" s="362"/>
+      <c r="R60" s="362"/>
+      <c r="S60" s="362"/>
+      <c r="T60" s="362"/>
+      <c r="U60" s="362"/>
+      <c r="V60" s="362"/>
+      <c r="W60" s="362"/>
+      <c r="X60" s="362"/>
+      <c r="Y60" s="362"/>
+      <c r="Z60" s="362"/>
+      <c r="AA60" s="362"/>
+      <c r="AB60" s="362"/>
+      <c r="AC60" s="362"/>
+      <c r="AD60" s="362"/>
+      <c r="AE60" s="362"/>
+      <c r="AF60" s="362"/>
+      <c r="AG60" s="362"/>
+      <c r="AH60" s="362"/>
+      <c r="AI60" s="362"/>
+      <c r="AJ60" s="362"/>
+      <c r="AK60" s="362"/>
+      <c r="AL60" s="362"/>
+      <c r="AM60" s="363">
         <f>AT50+AS57</f>
         <v>0</v>
       </c>
-      <c r="AN60" s="72"/>
-      <c r="AO60" s="72"/>
-      <c r="AP60" s="72"/>
-      <c r="AQ60" s="72"/>
-      <c r="AR60" s="72"/>
-      <c r="AS60" s="72"/>
-      <c r="AT60" s="72"/>
-      <c r="AU60" s="72"/>
-      <c r="AV60" s="72"/>
-      <c r="AW60" s="72"/>
-      <c r="AX60" s="72"/>
-      <c r="AY60" s="72"/>
-      <c r="AZ60" s="73"/>
+      <c r="AN60" s="364"/>
+      <c r="AO60" s="364"/>
+      <c r="AP60" s="364"/>
+      <c r="AQ60" s="364"/>
+      <c r="AR60" s="364"/>
+      <c r="AS60" s="364"/>
+      <c r="AT60" s="364"/>
+      <c r="AU60" s="364"/>
+      <c r="AV60" s="364"/>
+      <c r="AW60" s="364"/>
+      <c r="AX60" s="364"/>
+      <c r="AY60" s="364"/>
+      <c r="AZ60" s="365"/>
       <c r="BA60" s="4"/>
       <c r="BB60" s="4"/>
     </row>
@@ -7823,35 +7822,35 @@
       <c r="AZ61" s="37"/>
     </row>
     <row r="62" spans="1:54" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="67" t="s">
-        <v>70</v>
+      <c r="A62" s="360" t="s">
+        <v>69</v>
       </c>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="67"/>
-      <c r="J62" s="67"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="67"/>
-      <c r="Y62" s="68"/>
-      <c r="Z62" s="68"/>
-      <c r="AA62" s="68"/>
-      <c r="AB62" s="68"/>
-      <c r="AC62" s="68"/>
-      <c r="AD62" s="68"/>
-      <c r="AE62" s="68"/>
-      <c r="AF62" s="68"/>
-      <c r="AG62" s="68"/>
-      <c r="AH62" s="68"/>
-      <c r="AI62" s="68"/>
-      <c r="AJ62" s="68"/>
-      <c r="AK62" s="68"/>
+      <c r="B62" s="360"/>
+      <c r="C62" s="360"/>
+      <c r="D62" s="360"/>
+      <c r="E62" s="360"/>
+      <c r="F62" s="360"/>
+      <c r="G62" s="360"/>
+      <c r="H62" s="360"/>
+      <c r="I62" s="360"/>
+      <c r="J62" s="360"/>
+      <c r="K62" s="360"/>
+      <c r="L62" s="360"/>
+      <c r="M62" s="360"/>
+      <c r="N62" s="360"/>
+      <c r="Y62" s="192"/>
+      <c r="Z62" s="192"/>
+      <c r="AA62" s="192"/>
+      <c r="AB62" s="192"/>
+      <c r="AC62" s="192"/>
+      <c r="AD62" s="192"/>
+      <c r="AE62" s="192"/>
+      <c r="AF62" s="192"/>
+      <c r="AG62" s="192"/>
+      <c r="AH62" s="192"/>
+      <c r="AI62" s="192"/>
+      <c r="AJ62" s="192"/>
+      <c r="AK62" s="192"/>
       <c r="AL62" s="62"/>
       <c r="AM62" s="62"/>
       <c r="AN62" s="62"/>
@@ -7890,45 +7889,45 @@
       <c r="BA63" s="62"/>
     </row>
     <row r="64" spans="1:54" s="61" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="67" t="s">
-        <v>71</v>
+      <c r="A64" s="360" t="s">
+        <v>70</v>
       </c>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="67"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="67"/>
-      <c r="M64" s="67"/>
+      <c r="B64" s="360"/>
+      <c r="C64" s="360"/>
+      <c r="D64" s="360"/>
+      <c r="E64" s="360"/>
+      <c r="F64" s="360"/>
+      <c r="G64" s="360"/>
+      <c r="H64" s="360"/>
+      <c r="I64" s="360"/>
+      <c r="J64" s="360"/>
+      <c r="K64" s="360"/>
+      <c r="L64" s="360"/>
+      <c r="M64" s="360"/>
       <c r="N64" s="63"/>
       <c r="O64" s="63"/>
-      <c r="P64" s="205"/>
-      <c r="Q64" s="205"/>
-      <c r="R64" s="205"/>
-      <c r="S64" s="205"/>
-      <c r="T64" s="205"/>
-      <c r="U64" s="205"/>
-      <c r="V64" s="205"/>
-      <c r="W64" s="205"/>
-      <c r="X64" s="205"/>
-      <c r="Y64" s="68"/>
-      <c r="Z64" s="68"/>
-      <c r="AA64" s="68"/>
-      <c r="AB64" s="68"/>
-      <c r="AC64" s="68"/>
-      <c r="AD64" s="68"/>
-      <c r="AE64" s="68"/>
-      <c r="AF64" s="68"/>
-      <c r="AG64" s="68"/>
-      <c r="AH64" s="68"/>
-      <c r="AI64" s="68"/>
-      <c r="AJ64" s="68"/>
-      <c r="AK64" s="68"/>
+      <c r="P64" s="259"/>
+      <c r="Q64" s="259"/>
+      <c r="R64" s="259"/>
+      <c r="S64" s="259"/>
+      <c r="T64" s="259"/>
+      <c r="U64" s="259"/>
+      <c r="V64" s="259"/>
+      <c r="W64" s="259"/>
+      <c r="X64" s="259"/>
+      <c r="Y64" s="192"/>
+      <c r="Z64" s="192"/>
+      <c r="AA64" s="192"/>
+      <c r="AB64" s="192"/>
+      <c r="AC64" s="192"/>
+      <c r="AD64" s="192"/>
+      <c r="AE64" s="192"/>
+      <c r="AF64" s="192"/>
+      <c r="AG64" s="192"/>
+      <c r="AH64" s="192"/>
+      <c r="AI64" s="192"/>
+      <c r="AJ64" s="192"/>
+      <c r="AK64" s="192"/>
       <c r="AL64" s="64"/>
     </row>
     <row r="65" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -7968,34 +7967,34 @@
       <c r="AH65" s="3"/>
       <c r="AI65" s="22"/>
       <c r="AJ65" s="22"/>
-      <c r="AK65" s="214" t="s">
-        <v>45</v>
+      <c r="AK65" s="190" t="s">
+        <v>44</v>
       </c>
-      <c r="AL65" s="214"/>
-      <c r="AM65" s="214"/>
-      <c r="AN65" s="214"/>
-      <c r="AO65" s="214"/>
-      <c r="AP65" s="191">
+      <c r="AL65" s="190"/>
+      <c r="AM65" s="190"/>
+      <c r="AN65" s="190"/>
+      <c r="AO65" s="190"/>
+      <c r="AP65" s="198">
         <v>2</v>
       </c>
-      <c r="AQ65" s="217" t="s">
-        <v>49</v>
+      <c r="AQ65" s="118" t="s">
+        <v>48</v>
       </c>
-      <c r="AR65" s="217"/>
-      <c r="AS65" s="193">
+      <c r="AR65" s="118"/>
+      <c r="AS65" s="194">
         <f>AS39</f>
         <v>0</v>
       </c>
-      <c r="AT65" s="216">
+      <c r="AT65" s="193">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AU65" s="216"/>
-      <c r="AV65" s="216"/>
-      <c r="AW65" s="216"/>
-      <c r="AX65" s="216"/>
-      <c r="AY65" s="216"/>
-      <c r="AZ65" s="216"/>
+      <c r="AU65" s="193"/>
+      <c r="AV65" s="193"/>
+      <c r="AW65" s="193"/>
+      <c r="AX65" s="193"/>
+      <c r="AY65" s="193"/>
+      <c r="AZ65" s="193"/>
     </row>
     <row r="66" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
@@ -8034,24 +8033,24 @@
       <c r="AH66" s="3"/>
       <c r="AI66" s="60"/>
       <c r="AJ66" s="60"/>
-      <c r="AK66" s="219" t="s">
-        <v>46</v>
+      <c r="AK66" s="196" t="s">
+        <v>45</v>
       </c>
-      <c r="AL66" s="219"/>
-      <c r="AM66" s="219"/>
-      <c r="AN66" s="219"/>
-      <c r="AO66" s="219"/>
-      <c r="AP66" s="194"/>
-      <c r="AQ66" s="218"/>
-      <c r="AR66" s="218"/>
-      <c r="AS66" s="196"/>
-      <c r="AT66" s="216"/>
-      <c r="AU66" s="216"/>
-      <c r="AV66" s="216"/>
-      <c r="AW66" s="216"/>
-      <c r="AX66" s="216"/>
-      <c r="AY66" s="216"/>
-      <c r="AZ66" s="216"/>
+      <c r="AL66" s="196"/>
+      <c r="AM66" s="196"/>
+      <c r="AN66" s="196"/>
+      <c r="AO66" s="196"/>
+      <c r="AP66" s="199"/>
+      <c r="AQ66" s="119"/>
+      <c r="AR66" s="119"/>
+      <c r="AS66" s="195"/>
+      <c r="AT66" s="193"/>
+      <c r="AU66" s="193"/>
+      <c r="AV66" s="193"/>
+      <c r="AW66" s="193"/>
+      <c r="AX66" s="193"/>
+      <c r="AY66" s="193"/>
+      <c r="AZ66" s="193"/>
     </row>
     <row r="67" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3"/>
@@ -8088,29 +8087,29 @@
       <c r="AF67" s="3"/>
       <c r="AG67" s="3"/>
       <c r="AH67" s="3"/>
-      <c r="AI67" s="188" t="s">
-        <v>41</v>
+      <c r="AI67" s="239" t="s">
+        <v>40</v>
       </c>
-      <c r="AJ67" s="189"/>
-      <c r="AK67" s="189"/>
-      <c r="AL67" s="189"/>
-      <c r="AM67" s="189"/>
-      <c r="AN67" s="189"/>
-      <c r="AO67" s="189"/>
-      <c r="AP67" s="189"/>
-      <c r="AQ67" s="189"/>
-      <c r="AR67" s="190"/>
-      <c r="AS67" s="191">
+      <c r="AJ67" s="240"/>
+      <c r="AK67" s="240"/>
+      <c r="AL67" s="240"/>
+      <c r="AM67" s="240"/>
+      <c r="AN67" s="240"/>
+      <c r="AO67" s="240"/>
+      <c r="AP67" s="240"/>
+      <c r="AQ67" s="240"/>
+      <c r="AR67" s="241"/>
+      <c r="AS67" s="198">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AT67" s="192"/>
-      <c r="AU67" s="192"/>
-      <c r="AV67" s="192"/>
-      <c r="AW67" s="192"/>
-      <c r="AX67" s="192"/>
-      <c r="AY67" s="192"/>
-      <c r="AZ67" s="193"/>
+      <c r="AT67" s="242"/>
+      <c r="AU67" s="242"/>
+      <c r="AV67" s="242"/>
+      <c r="AW67" s="242"/>
+      <c r="AX67" s="242"/>
+      <c r="AY67" s="242"/>
+      <c r="AZ67" s="194"/>
     </row>
     <row r="68" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
@@ -8147,26 +8146,26 @@
       <c r="AF68" s="3"/>
       <c r="AG68" s="3"/>
       <c r="AH68" s="3"/>
-      <c r="AI68" s="197" t="s">
-        <v>42</v>
+      <c r="AI68" s="244" t="s">
+        <v>41</v>
       </c>
-      <c r="AJ68" s="198"/>
-      <c r="AK68" s="198"/>
-      <c r="AL68" s="198"/>
-      <c r="AM68" s="198"/>
-      <c r="AN68" s="198"/>
-      <c r="AO68" s="198"/>
-      <c r="AP68" s="198"/>
-      <c r="AQ68" s="198"/>
-      <c r="AR68" s="199"/>
-      <c r="AS68" s="194"/>
-      <c r="AT68" s="195"/>
-      <c r="AU68" s="195"/>
-      <c r="AV68" s="195"/>
-      <c r="AW68" s="195"/>
-      <c r="AX68" s="195"/>
-      <c r="AY68" s="195"/>
-      <c r="AZ68" s="196"/>
+      <c r="AJ68" s="245"/>
+      <c r="AK68" s="245"/>
+      <c r="AL68" s="245"/>
+      <c r="AM68" s="245"/>
+      <c r="AN68" s="245"/>
+      <c r="AO68" s="245"/>
+      <c r="AP68" s="245"/>
+      <c r="AQ68" s="245"/>
+      <c r="AR68" s="246"/>
+      <c r="AS68" s="199"/>
+      <c r="AT68" s="243"/>
+      <c r="AU68" s="243"/>
+      <c r="AV68" s="243"/>
+      <c r="AW68" s="243"/>
+      <c r="AX68" s="243"/>
+      <c r="AY68" s="243"/>
+      <c r="AZ68" s="195"/>
     </row>
     <row r="69" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3"/>
@@ -10310,29 +10309,29 @@
       <c r="AF108" s="4"/>
       <c r="AG108" s="4"/>
       <c r="AH108" s="4"/>
-      <c r="AI108" s="232" t="s">
-        <v>41</v>
+      <c r="AI108" s="187" t="s">
+        <v>40</v>
       </c>
-      <c r="AJ108" s="233"/>
-      <c r="AK108" s="233"/>
-      <c r="AL108" s="233"/>
-      <c r="AM108" s="233"/>
-      <c r="AN108" s="233"/>
-      <c r="AO108" s="233"/>
-      <c r="AP108" s="233"/>
-      <c r="AQ108" s="233"/>
-      <c r="AR108" s="234"/>
-      <c r="AS108" s="223">
+      <c r="AJ108" s="188"/>
+      <c r="AK108" s="188"/>
+      <c r="AL108" s="188"/>
+      <c r="AM108" s="188"/>
+      <c r="AN108" s="188"/>
+      <c r="AO108" s="188"/>
+      <c r="AP108" s="188"/>
+      <c r="AQ108" s="188"/>
+      <c r="AR108" s="189"/>
+      <c r="AS108" s="178">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AT108" s="224"/>
-      <c r="AU108" s="224"/>
-      <c r="AV108" s="224"/>
-      <c r="AW108" s="224"/>
-      <c r="AX108" s="224"/>
-      <c r="AY108" s="224"/>
-      <c r="AZ108" s="225"/>
+      <c r="AT108" s="179"/>
+      <c r="AU108" s="179"/>
+      <c r="AV108" s="179"/>
+      <c r="AW108" s="179"/>
+      <c r="AX108" s="179"/>
+      <c r="AY108" s="179"/>
+      <c r="AZ108" s="180"/>
     </row>
     <row r="109" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
@@ -10369,26 +10368,26 @@
       <c r="AF109" s="4"/>
       <c r="AG109" s="4"/>
       <c r="AH109" s="4"/>
-      <c r="AI109" s="229" t="s">
-        <v>42</v>
+      <c r="AI109" s="184" t="s">
+        <v>41</v>
       </c>
-      <c r="AJ109" s="230"/>
-      <c r="AK109" s="230"/>
-      <c r="AL109" s="230"/>
-      <c r="AM109" s="230"/>
-      <c r="AN109" s="230"/>
-      <c r="AO109" s="230"/>
-      <c r="AP109" s="230"/>
-      <c r="AQ109" s="230"/>
-      <c r="AR109" s="231"/>
-      <c r="AS109" s="226"/>
-      <c r="AT109" s="227"/>
-      <c r="AU109" s="227"/>
-      <c r="AV109" s="227"/>
-      <c r="AW109" s="227"/>
-      <c r="AX109" s="227"/>
-      <c r="AY109" s="227"/>
-      <c r="AZ109" s="228"/>
+      <c r="AJ109" s="185"/>
+      <c r="AK109" s="185"/>
+      <c r="AL109" s="185"/>
+      <c r="AM109" s="185"/>
+      <c r="AN109" s="185"/>
+      <c r="AO109" s="185"/>
+      <c r="AP109" s="185"/>
+      <c r="AQ109" s="185"/>
+      <c r="AR109" s="186"/>
+      <c r="AS109" s="181"/>
+      <c r="AT109" s="182"/>
+      <c r="AU109" s="182"/>
+      <c r="AV109" s="182"/>
+      <c r="AW109" s="182"/>
+      <c r="AX109" s="182"/>
+      <c r="AY109" s="182"/>
+      <c r="AZ109" s="183"/>
     </row>
     <row r="110" spans="1:53" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4"/>
@@ -12531,29 +12530,29 @@
       <c r="AF149" s="4"/>
       <c r="AG149" s="6"/>
       <c r="AH149" s="4"/>
-      <c r="AI149" s="232" t="s">
-        <v>41</v>
+      <c r="AI149" s="187" t="s">
+        <v>40</v>
       </c>
-      <c r="AJ149" s="233"/>
-      <c r="AK149" s="233"/>
-      <c r="AL149" s="233"/>
-      <c r="AM149" s="233"/>
-      <c r="AN149" s="233"/>
-      <c r="AO149" s="233"/>
-      <c r="AP149" s="233"/>
-      <c r="AQ149" s="233"/>
-      <c r="AR149" s="234"/>
-      <c r="AS149" s="223">
+      <c r="AJ149" s="188"/>
+      <c r="AK149" s="188"/>
+      <c r="AL149" s="188"/>
+      <c r="AM149" s="188"/>
+      <c r="AN149" s="188"/>
+      <c r="AO149" s="188"/>
+      <c r="AP149" s="188"/>
+      <c r="AQ149" s="188"/>
+      <c r="AR149" s="189"/>
+      <c r="AS149" s="178">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AT149" s="224"/>
-      <c r="AU149" s="224"/>
-      <c r="AV149" s="224"/>
-      <c r="AW149" s="224"/>
-      <c r="AX149" s="224"/>
-      <c r="AY149" s="224"/>
-      <c r="AZ149" s="225"/>
+      <c r="AT149" s="179"/>
+      <c r="AU149" s="179"/>
+      <c r="AV149" s="179"/>
+      <c r="AW149" s="179"/>
+      <c r="AX149" s="179"/>
+      <c r="AY149" s="179"/>
+      <c r="AZ149" s="180"/>
     </row>
     <row r="150" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
@@ -12590,26 +12589,26 @@
       <c r="AF150" s="4"/>
       <c r="AG150" s="4"/>
       <c r="AH150" s="4"/>
-      <c r="AI150" s="229" t="s">
-        <v>42</v>
+      <c r="AI150" s="184" t="s">
+        <v>41</v>
       </c>
-      <c r="AJ150" s="230"/>
-      <c r="AK150" s="230"/>
-      <c r="AL150" s="230"/>
-      <c r="AM150" s="230"/>
-      <c r="AN150" s="230"/>
-      <c r="AO150" s="230"/>
-      <c r="AP150" s="230"/>
-      <c r="AQ150" s="230"/>
-      <c r="AR150" s="231"/>
-      <c r="AS150" s="226"/>
-      <c r="AT150" s="227"/>
-      <c r="AU150" s="227"/>
-      <c r="AV150" s="227"/>
-      <c r="AW150" s="227"/>
-      <c r="AX150" s="227"/>
-      <c r="AY150" s="227"/>
-      <c r="AZ150" s="228"/>
+      <c r="AJ150" s="185"/>
+      <c r="AK150" s="185"/>
+      <c r="AL150" s="185"/>
+      <c r="AM150" s="185"/>
+      <c r="AN150" s="185"/>
+      <c r="AO150" s="185"/>
+      <c r="AP150" s="185"/>
+      <c r="AQ150" s="185"/>
+      <c r="AR150" s="186"/>
+      <c r="AS150" s="181"/>
+      <c r="AT150" s="182"/>
+      <c r="AU150" s="182"/>
+      <c r="AV150" s="182"/>
+      <c r="AW150" s="182"/>
+      <c r="AX150" s="182"/>
+      <c r="AY150" s="182"/>
+      <c r="AZ150" s="183"/>
     </row>
     <row r="151" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4"/>
@@ -14752,29 +14751,29 @@
       <c r="AF190" s="4"/>
       <c r="AG190" s="6"/>
       <c r="AH190" s="4"/>
-      <c r="AI190" s="232" t="s">
-        <v>41</v>
+      <c r="AI190" s="187" t="s">
+        <v>40</v>
       </c>
-      <c r="AJ190" s="233"/>
-      <c r="AK190" s="233"/>
-      <c r="AL190" s="233"/>
-      <c r="AM190" s="233"/>
-      <c r="AN190" s="233"/>
-      <c r="AO190" s="233"/>
-      <c r="AP190" s="233"/>
-      <c r="AQ190" s="233"/>
-      <c r="AR190" s="234"/>
-      <c r="AS190" s="223">
+      <c r="AJ190" s="188"/>
+      <c r="AK190" s="188"/>
+      <c r="AL190" s="188"/>
+      <c r="AM190" s="188"/>
+      <c r="AN190" s="188"/>
+      <c r="AO190" s="188"/>
+      <c r="AP190" s="188"/>
+      <c r="AQ190" s="188"/>
+      <c r="AR190" s="189"/>
+      <c r="AS190" s="178">
         <f>AB8</f>
         <v>0</v>
       </c>
-      <c r="AT190" s="224"/>
-      <c r="AU190" s="224"/>
-      <c r="AV190" s="224"/>
-      <c r="AW190" s="224"/>
-      <c r="AX190" s="224"/>
-      <c r="AY190" s="224"/>
-      <c r="AZ190" s="225"/>
+      <c r="AT190" s="179"/>
+      <c r="AU190" s="179"/>
+      <c r="AV190" s="179"/>
+      <c r="AW190" s="179"/>
+      <c r="AX190" s="179"/>
+      <c r="AY190" s="179"/>
+      <c r="AZ190" s="180"/>
     </row>
     <row r="191" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
@@ -14811,26 +14810,26 @@
       <c r="AF191" s="4"/>
       <c r="AG191" s="4"/>
       <c r="AH191" s="4"/>
-      <c r="AI191" s="229" t="s">
-        <v>42</v>
+      <c r="AI191" s="184" t="s">
+        <v>41</v>
       </c>
-      <c r="AJ191" s="230"/>
-      <c r="AK191" s="230"/>
-      <c r="AL191" s="230"/>
-      <c r="AM191" s="230"/>
-      <c r="AN191" s="230"/>
-      <c r="AO191" s="230"/>
-      <c r="AP191" s="230"/>
-      <c r="AQ191" s="230"/>
-      <c r="AR191" s="231"/>
-      <c r="AS191" s="226"/>
-      <c r="AT191" s="227"/>
-      <c r="AU191" s="227"/>
-      <c r="AV191" s="227"/>
-      <c r="AW191" s="227"/>
-      <c r="AX191" s="227"/>
-      <c r="AY191" s="227"/>
-      <c r="AZ191" s="228"/>
+      <c r="AJ191" s="185"/>
+      <c r="AK191" s="185"/>
+      <c r="AL191" s="185"/>
+      <c r="AM191" s="185"/>
+      <c r="AN191" s="185"/>
+      <c r="AO191" s="185"/>
+      <c r="AP191" s="185"/>
+      <c r="AQ191" s="185"/>
+      <c r="AR191" s="186"/>
+      <c r="AS191" s="181"/>
+      <c r="AT191" s="182"/>
+      <c r="AU191" s="182"/>
+      <c r="AV191" s="182"/>
+      <c r="AW191" s="182"/>
+      <c r="AX191" s="182"/>
+      <c r="AY191" s="182"/>
+      <c r="AZ191" s="183"/>
     </row>
     <row r="192" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
@@ -17855,71 +17854,66 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="150">
-    <mergeCell ref="AN23:AS23"/>
-    <mergeCell ref="A36:K37"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A53:AZ53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A44:C47"/>
-    <mergeCell ref="D44:H47"/>
-    <mergeCell ref="A43:AZ43"/>
-    <mergeCell ref="AO49:AS49"/>
-    <mergeCell ref="T31:AZ31"/>
-    <mergeCell ref="T32:AZ32"/>
-    <mergeCell ref="T33:AZ33"/>
-    <mergeCell ref="T34:AZ34"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:H49"/>
-    <mergeCell ref="I49:V49"/>
-    <mergeCell ref="W49:AA49"/>
-    <mergeCell ref="AB49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AN49"/>
-    <mergeCell ref="AQ39:AR40"/>
-    <mergeCell ref="AI8:AM8"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="Q9:AI9"/>
-    <mergeCell ref="S11:V11"/>
-    <mergeCell ref="T12:AG12"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AS21:AZ22"/>
-    <mergeCell ref="AR17:AZ18"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="Z21:AF21"/>
-    <mergeCell ref="Z22:AF22"/>
-    <mergeCell ref="AL22:AR22"/>
-    <mergeCell ref="AL21:AR21"/>
-    <mergeCell ref="AG21:AK22"/>
-    <mergeCell ref="N22:T22"/>
-    <mergeCell ref="AL19:AZ20"/>
-    <mergeCell ref="U21:Y22"/>
-    <mergeCell ref="W8:AF8"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:R17"/>
-    <mergeCell ref="S17:W17"/>
-    <mergeCell ref="X17:AJ17"/>
-    <mergeCell ref="Z20:AK20"/>
-    <mergeCell ref="I19:Y20"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:R18"/>
-    <mergeCell ref="Z19:AK19"/>
-    <mergeCell ref="X18:AJ18"/>
-    <mergeCell ref="AK18:AQ18"/>
-    <mergeCell ref="AK17:AQ17"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="AS190:AZ191"/>
-    <mergeCell ref="AS149:AZ150"/>
-    <mergeCell ref="AS108:AZ109"/>
-    <mergeCell ref="AI191:AR191"/>
-    <mergeCell ref="AI149:AR149"/>
-    <mergeCell ref="AI150:AR150"/>
-    <mergeCell ref="AI190:AR190"/>
-    <mergeCell ref="AI109:AR109"/>
-    <mergeCell ref="AI108:AR108"/>
-    <mergeCell ref="AK39:AO39"/>
+    <mergeCell ref="AT25:AZ25"/>
+    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="AT23:AZ24"/>
+    <mergeCell ref="AA23:AE23"/>
+    <mergeCell ref="I23:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
+    <mergeCell ref="A62:N62"/>
+    <mergeCell ref="A64:M64"/>
+    <mergeCell ref="Y62:AK62"/>
+    <mergeCell ref="A60:AL60"/>
+    <mergeCell ref="AM60:AZ60"/>
+    <mergeCell ref="AS57:AZ57"/>
+    <mergeCell ref="A57:AR57"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="AB54:AF54"/>
+    <mergeCell ref="AB55:AF55"/>
+    <mergeCell ref="AB56:AF56"/>
+    <mergeCell ref="AM55:AR55"/>
+    <mergeCell ref="AS55:AZ55"/>
+    <mergeCell ref="AM56:AR56"/>
+    <mergeCell ref="AS56:AZ56"/>
+    <mergeCell ref="D54:H54"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="I54:AA54"/>
+    <mergeCell ref="AT48:AZ48"/>
+    <mergeCell ref="AF44:AH47"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AB48:AE48"/>
+    <mergeCell ref="D55:H55"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:M22"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="Y36:AF37"/>
+    <mergeCell ref="I25:AS26"/>
+    <mergeCell ref="I27:AS28"/>
+    <mergeCell ref="A25:H26"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A32:H34"/>
+    <mergeCell ref="AF23:AM24"/>
+    <mergeCell ref="A29:H31"/>
+    <mergeCell ref="I29:N34"/>
+    <mergeCell ref="O29:S31"/>
+    <mergeCell ref="O32:S34"/>
+    <mergeCell ref="T29:AZ29"/>
+    <mergeCell ref="T30:AZ30"/>
+    <mergeCell ref="AT26:AZ28"/>
+    <mergeCell ref="AI67:AR67"/>
+    <mergeCell ref="AS67:AZ68"/>
+    <mergeCell ref="AI68:AR68"/>
+    <mergeCell ref="AG54:AL54"/>
+    <mergeCell ref="AS54:AZ54"/>
+    <mergeCell ref="AG55:AL55"/>
+    <mergeCell ref="AG56:AL56"/>
+    <mergeCell ref="P64:X64"/>
+    <mergeCell ref="AT50:AZ50"/>
+    <mergeCell ref="I55:AA55"/>
+    <mergeCell ref="I56:AA56"/>
+    <mergeCell ref="AM54:AR54"/>
     <mergeCell ref="Y64:AK64"/>
     <mergeCell ref="AT65:AZ66"/>
     <mergeCell ref="AK65:AO65"/>
@@ -17944,67 +17938,72 @@
     <mergeCell ref="AO48:AS48"/>
     <mergeCell ref="AT44:AZ47"/>
     <mergeCell ref="A41:AZ41"/>
-    <mergeCell ref="AI67:AR67"/>
-    <mergeCell ref="AS67:AZ68"/>
-    <mergeCell ref="AI68:AR68"/>
-    <mergeCell ref="AG54:AL54"/>
-    <mergeCell ref="AS54:AZ54"/>
-    <mergeCell ref="AG55:AL55"/>
-    <mergeCell ref="AG56:AL56"/>
-    <mergeCell ref="P64:X64"/>
-    <mergeCell ref="AT50:AZ50"/>
+    <mergeCell ref="AS190:AZ191"/>
+    <mergeCell ref="AS149:AZ150"/>
+    <mergeCell ref="AS108:AZ109"/>
+    <mergeCell ref="AI191:AR191"/>
+    <mergeCell ref="AI149:AR149"/>
+    <mergeCell ref="AI150:AR150"/>
+    <mergeCell ref="AI190:AR190"/>
+    <mergeCell ref="AI109:AR109"/>
+    <mergeCell ref="AI108:AR108"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:R17"/>
+    <mergeCell ref="S17:W17"/>
+    <mergeCell ref="X17:AJ17"/>
+    <mergeCell ref="Z20:AK20"/>
+    <mergeCell ref="I19:Y20"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:R18"/>
+    <mergeCell ref="Z19:AK19"/>
+    <mergeCell ref="X18:AJ18"/>
+    <mergeCell ref="AK18:AQ18"/>
+    <mergeCell ref="AK17:AQ17"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="AI8:AM8"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="Q9:AI9"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="T12:AG12"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AS21:AZ22"/>
+    <mergeCell ref="AR17:AZ18"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="Z21:AF21"/>
+    <mergeCell ref="Z22:AF22"/>
+    <mergeCell ref="AL22:AR22"/>
+    <mergeCell ref="AL21:AR21"/>
+    <mergeCell ref="AG21:AK22"/>
+    <mergeCell ref="N22:T22"/>
+    <mergeCell ref="AL19:AZ20"/>
+    <mergeCell ref="U21:Y22"/>
+    <mergeCell ref="W8:AF8"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="A36:K37"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A53:AZ53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A44:C47"/>
+    <mergeCell ref="D44:H47"/>
+    <mergeCell ref="A43:AZ43"/>
+    <mergeCell ref="AO49:AS49"/>
+    <mergeCell ref="T31:AZ31"/>
+    <mergeCell ref="T32:AZ32"/>
+    <mergeCell ref="T33:AZ33"/>
+    <mergeCell ref="T34:AZ34"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="I49:V49"/>
+    <mergeCell ref="W49:AA49"/>
+    <mergeCell ref="AB49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AN49"/>
+    <mergeCell ref="AQ39:AR40"/>
+    <mergeCell ref="AK39:AO39"/>
     <mergeCell ref="AT49:AZ49"/>
-    <mergeCell ref="AT48:AZ48"/>
-    <mergeCell ref="AF44:AH47"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AB48:AE48"/>
-    <mergeCell ref="D55:H55"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:M22"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="Y36:AF37"/>
-    <mergeCell ref="I25:AS26"/>
-    <mergeCell ref="I27:AS28"/>
-    <mergeCell ref="A25:H26"/>
-    <mergeCell ref="A27:H28"/>
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A32:H34"/>
-    <mergeCell ref="AF23:AM24"/>
-    <mergeCell ref="A29:H31"/>
-    <mergeCell ref="I29:N34"/>
-    <mergeCell ref="O29:S31"/>
-    <mergeCell ref="O32:S34"/>
-    <mergeCell ref="T29:AZ29"/>
-    <mergeCell ref="T30:AZ30"/>
-    <mergeCell ref="AT26:AZ28"/>
-    <mergeCell ref="AT25:AZ25"/>
-    <mergeCell ref="AN24:AS24"/>
-    <mergeCell ref="AT23:AZ24"/>
-    <mergeCell ref="AA23:AE23"/>
-    <mergeCell ref="I23:Z24"/>
-    <mergeCell ref="AA24:AE24"/>
-    <mergeCell ref="A62:N62"/>
-    <mergeCell ref="A64:M64"/>
-    <mergeCell ref="Y62:AK62"/>
-    <mergeCell ref="A60:AL60"/>
-    <mergeCell ref="AM60:AZ60"/>
-    <mergeCell ref="AS57:AZ57"/>
-    <mergeCell ref="A57:AR57"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="AB54:AF54"/>
-    <mergeCell ref="AB55:AF55"/>
-    <mergeCell ref="AB56:AF56"/>
-    <mergeCell ref="AM55:AR55"/>
-    <mergeCell ref="AS55:AZ55"/>
-    <mergeCell ref="AM56:AR56"/>
-    <mergeCell ref="AS56:AZ56"/>
-    <mergeCell ref="D54:H54"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="I54:AA54"/>
-    <mergeCell ref="I55:AA55"/>
-    <mergeCell ref="I56:AA56"/>
-    <mergeCell ref="AM54:AR54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -18026,11 +18025,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>n9ryCJdjqbL0pNpTy5QOCA1ek0nnX8iykpYLGhBpqnDh5/N/20hsXt/I3FOtVgYijsTLpo+oipYpZQj1bgOsVw==</nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>
+<NovaPath_baseApplication>Microsoft Excel</NovaPath_baseApplication>
 </file>
 
 <file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docAuthor>Tikhonov Alexander NCH Q-L</NovaPath_docAuthor>
+<NovaPath_versionInfo>4.6.8.12343</NovaPath_versionInfo>
 </file>
 
 <file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18038,91 +18037,91 @@
 </file>
 
 <file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>vc0QNNiEy8wlifPvO4zZy5vHsirDHlQQ7pY2VLgNOd8=</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>
+<NovaPath_docOwner>z150027</NovaPath_docOwner>
 </file>
 
 <file path=customXml/item13.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>pITfGXp/KloYW4gAewWh/pycspxnOhHca97XvxPwfcwCn5mmNLCkOIR8ahpSVQs/</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>
+</file>
+
+<file path=customXml/item14.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>n9ryCJdjqbL0pNpTy5QOCA1ek0nnX8iykpYLGhBpqnDh5/N/20hsXt/I3FOtVgYijsTLpo+oipYpZQj1bgOsVw==</nXeGKudETKPeaCNGFh5iTSI5UodjD94nh7U7VklxY>
+</file>
+
+<file path=customXml/item15.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>WiMggDMp8sF8kWg6qqYyqg==</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>
+</file>
+
+<file path=customXml/item16.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_tenantID>8BC9BD9B-31E2-4E97-ABE0-B03814292429</NovaPath_tenantID>
+</file>
+
+<file path=customXml/item17.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
+</file>
+
+<file path=customXml/item18.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docAuthor>Tikhonov Alexander NCH Q-L</NovaPath_docAuthor>
+</file>
+
+<file path=customXml/item19.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>HyDN9Bfbq1WFRVoCWLb9KwoD7/EZk+WsCQPBQc8juGj332buQ1I3WTjNl5L4SM6AcSbv4Nn4M8+Mg/AfdUh5TQ==</nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docID>P3IJ4T0SSFP3UZ73APB45OXCB2</NovaPath_docID>
+</file>
+
+<file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>pp2TMLvbsGiJfrKeSeXGfA==</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
+</file>
+
+<file path=customXml/item21.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docClassDate>10/04/2017 08:01:35</NovaPath_docClassDate>
+</file>
+
+<file path=customXml/item22.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docClass>ZF confidential</NovaPath_docClass>
+</file>
+
+<file path=customXml/item23.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docName>E:\Work\blank_complaint.xlsx</NovaPath_docName>
+</file>
+
+<file path=customXml/item24.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>DLypFCKquMi/teLBbvv3qpcV0N7cfyNFSRWKMBAlKhI=</nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>
+</file>
+
+<file path=customXml/item25.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>5MGG1M0YpZv4gfx/V/SFUk/2uH/TJKYpFxpeN48alj16qou0TsOzNmvV6tGRAtgMAEkUZKdejLysW7OIDOeBGw==</nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>
+</file>
+
+<file path=customXml/item26.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>SiTVZYrZoP6lgSCTj6v0lYUXo7rptB3vsxE98fSlaTok74hHqUQ//z+IzG3f3dKdNUyW4Kjm/X9VSbJA4Gr5MW0KPH+B642pxXdDNArGooo=</nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>
+</file>
+
+<file path=customXml/item27.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_DocumentType>0</NovaPath_DocumentType>
+</file>
+
+<file path=customXml/item28.xml><?xml version="1.0" encoding="utf-8"?>
+<nXeGKudETKPeaCNGFh5i7KB6PCgefevITs3IW5zvHkDTq2cPPZVDzitehfVaR>xXOERgJrn4wgiPpGYa05bg==</nXeGKudETKPeaCNGFh5i7KB6PCgefevITs3IW5zvHkDTq2cPPZVDzitehfVaR>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>5J8rNUUx5AkgUJRuZMyEitgZq7OR56jVhag1o8K8bs/UBP6wY5KFh5GYMopdQM3zyta20jrbvpPhoM69mQf7AQ==</nXeGKudETKPeaCNGFh5iyLk1gcWWJqTgFQk8wGFUmjFC0m6hdwbr2zDsrBNVqK>
 </file>
 
-<file path=customXml/item14.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docClass>ZF confidential</NovaPath_docClass>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<NovaPath_docIDOld>6DR722XHVT7BW8RIMINVEPVZUG</NovaPath_docIDOld>
 </file>
 
-<file path=customXml/item15.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docOwner>z150027</NovaPath_docOwner>
-</file>
-
-<file path=customXml/item16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>wET7z3APVwWLb5suGR4vTptv1m9DkTWWxkk+1+Ek1QM=</nXeGKudETKPeaCNGFh5i5IeuWeXv6XDtePDOrtUSOqWwmvYa7PTRiLQvIZkriN4zFxEJfkpx7yiWurrFRQTw>
 </file>
 
-<file path=customXml/item17.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>SiTVZYrZoP6lgSCTj6v0lYUXo7rptB3vsxE98fSlaTok74hHqUQ//z+IzG3f3dKdNUyW4Kjm/X9VSbJA4Gr5MW0KPH+B642pxXdDNArGooo=</nXeGKudETKPeaCNGFh5iKXsadLDxTRe0xbrxgS3asWaSdlBY0sLX5pYu7jLmo>
-</file>
-
-<file path=customXml/item18.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>HyDN9Bfbq1WFRVoCWLb9KwoD7/EZk+WsCQPBQc8juGj332buQ1I3WTjNl5L4SM6AcSbv4Nn4M8+Mg/AfdUh5TQ==</nXeGKudETKPeaCNGFh5i5JKJLOqxkMZWB6LsYfMaI9RtbpE1WkCpXazESWus5B>
-</file>
-
-<file path=customXml/item19.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_tenantID>8BC9BD9B-31E2-4E97-ABE0-B03814292429</NovaPath_tenantID>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>7eUq+Xzb5XN0OsWKj6f4Sw==</nXeGKudETKPeaCNGFh5i0BGlH9ci87cLWvMx3DlPzuAPh2gY9s703zKUS7uW>
-</file>
-
-<file path=customXml/item20.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
-</file>
-
-<file path=customXml/item21.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docIDOld>6DR722XHVT7BW8RIMINVEPVZUG</NovaPath_docIDOld>
-</file>
-
-<file path=customXml/item22.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_DocumentType>0</NovaPath_DocumentType>
-</file>
-
-<file path=customXml/item23.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>pp2TMLvbsGiJfrKeSeXGfA==</nXeGKudETKPeaCNGFh5i2aVdoOsLYjULCdH7T707tDyRRmguot4fEcJ2iD6f9>
-</file>
-
-<file path=customXml/item24.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>pITfGXp/KloYW4gAewWh/pycspxnOhHca97XvxPwfcwCn5mmNLCkOIR8ahpSVQs/</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZN38TajkfZeW3Vf6bvmNn8>
-</file>
-
-<file path=customXml/item25.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i7KB6PCgefevITs3IW5zvHkDTq2cPPZVDzitehfVaR>xXOERgJrn4wgiPpGYa05bg==</nXeGKudETKPeaCNGFh5i7KB6PCgefevITs3IW5zvHkDTq2cPPZVDzitehfVaR>
-</file>
-
-<file path=customXml/item26.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docName>E:\Work\blank_complaint.xlsx</NovaPath_docName>
-</file>
-
-<file path=customXml/item27.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_DocInfoFromAfterSave>False</NovaPath_DocInfoFromAfterSave>
-</file>
-
-<file path=customXml/item28.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_versionInfo>4.6.8.12343</NovaPath_versionInfo>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_baseApplication>Microsoft Excel</NovaPath_baseApplication>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>DLypFCKquMi/teLBbvv3qpcV0N7cfyNFSRWKMBAlKhI=</nXeGKudETKPeaCNGFh5i8sltj09I1nJ8AlBUytNZ1Ehih9jnZMZtoeNI9UMZ5>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docClassDate>10/04/2017 08:01:35</NovaPath_docClassDate>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>WiMggDMp8sF8kWg6qqYyqg==</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmYBQsS1cecqKZfGozr8W9iy>
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18130,21 +18129,21 @@
 </file>
 
 <file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
-<NovaPath_docID>P3IJ4T0SSFP3UZ73APB45OXCB2</NovaPath_docID>
+<nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>vc0QNNiEy8wlifPvO4zZy5vHsirDHlQQ7pY2VLgNOd8=</nXeGKudETKPeaCNGFh5ix5fP7fSWtl37NIroXmZyHIynb9qBde2n67FOJFV2>
 </file>
 
 <file path=customXml/item9.xml><?xml version="1.0" encoding="utf-8"?>
-<nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>5MGG1M0YpZv4gfx/V/SFUk/2uH/TJKYpFxpeN48alj16qou0TsOzNmvV6tGRAtgMAEkUZKdejLysW7OIDOeBGw==</nXeGKudETKPeaCNGFh5i7cKyawAjgyQn9gyiebCxx1jD9eHXSWW9Lib2F1j9>
+<nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>GoBUcRQBOiWNv9cnqy33XA==</nXeGKudETKPeaCNGFh5iy53cs4YTjZQd4Re9Stbph13fJwq3N1dxRUwfkxNCzGbktJIbKf2q8mQyY814Q>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315E44CD-8810-4F66-93F3-4C3B2A98AF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28473148-6F9E-4996-8FE4-C495600864A8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09294869-B732-4735-91D9-A4B5F2C925B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3BAAFF-5A2D-4944-8CC6-ACC0D899B54E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -18156,133 +18155,133 @@
 </file>
 
 <file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBCE101-9330-46A7-BC1D-69A8CE2EC5DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234EF826-BDA0-4D89-B3C7-3D1367B7C415}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA880436-8FD4-4A6C-AD0C-6C7A60900E64}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{315E44CD-8810-4F66-93F3-4C3B2A98AF84}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1F9ACB-A97E-437B-B2C2-392BE7A2C8FA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFAF4AB5-421A-40E2-A5E0-9EC17A1C0AC2}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F642674-FE3B-45F4-80B4-97EB2D159C1A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09294869-B732-4735-91D9-A4B5F2C925B9}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B961EE6E-2F10-4312-996A-B4AD4E24F513}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F75DCD6-1320-4E0F-A893-43159C84DC6D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E26D44-0795-4B0C-B82A-A4C4908EBACD}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75518A71-B894-43DE-9142-1BC6DB21EF8A}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEA1858-0F8F-4D34-B754-8984EE8450A7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862839E5-87C3-4FDC-943D-8C4504ED8E5E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E08545E-739A-4966-B7C7-6F37C0199EC0}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps25.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE6A895-3F2D-42B7-A3B1-6C0DA94E8613}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps26.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4047A8-E5D7-4990-99A4-0664934F569D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps27.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6B9E80-2763-401F-87A7-FD649509E2A9}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps28.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE22D4B-98EC-4D61-AC85-63BB4847C7F5}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44CBD506-52E6-4DAE-8C02-F44D6A0B1A67}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEA1858-0F8F-4D34-B754-8984EE8450A7}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2AF92F-DD97-4030-8C21-7F2C58E95B3D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{234EF826-BDA0-4D89-B3C7-3D1367B7C415}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0D0F19-4949-4C84-AB76-8EEF6C8E950A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps17.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4047A8-E5D7-4990-99A4-0664934F569D}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps18.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B961EE6E-2F10-4312-996A-B4AD4E24F513}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps19.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFAF4AB5-421A-40E2-A5E0-9EC17A1C0AC2}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81700F28-FDE5-4776-B0A3-BE92201C1145}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps20.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B44A858-AFBA-43D2-A2B3-283EEE130CD9}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps21.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2AF92F-DD97-4030-8C21-7F2C58E95B3D}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps22.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA6B9E80-2763-401F-87A7-FD649509E2A9}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps23.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07E26D44-0795-4B0C-B82A-A4C4908EBACD}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps24.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA880436-8FD4-4A6C-AD0C-6C7A60900E64}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps25.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FE22D4B-98EC-4D61-AC85-63BB4847C7F5}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps26.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{862839E5-87C3-4FDC-943D-8C4504ED8E5E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps27.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F642674-FE3B-45F4-80B4-97EB2D159C1A}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps28.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3BAAFF-5A2D-4944-8CC6-ACC0D899B54E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28473148-6F9E-4996-8FE4-C495600864A8}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E08545E-739A-4966-B7C7-6F37C0199EC0}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75518A71-B894-43DE-9142-1BC6DB21EF8A}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1F9ACB-A97E-437B-B2C2-392BE7A2C8FA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -18294,13 +18293,13 @@
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F75DCD6-1320-4E0F-A893-43159C84DC6D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FBCE101-9330-46A7-BC1D-69A8CE2EC5DA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EE6A895-3F2D-42B7-A3B1-6C0DA94E8613}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B44A858-AFBA-43D2-A2B3-283EEE130CD9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>